--- a/2018년 웹페이지 작업/Table/180723 NI HW Spec Table.xlsx
+++ b/2018년 웹페이지 작업/Table/180723 NI HW Spec Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\LabVIEW\Foens 2016.11.28~\문서\홈페이지 제작\Webpage\branches\aa\2018년 웹페이지 작업\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F296B068-B60A-4826-8543-A2CE1F4C1C83}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7612040F-CAFB-40E2-8CAD-413AA7C48486}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="5625" tabRatio="674" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="5625" tabRatio="674" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PC형 DAQ" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="711">
   <si>
     <t>Spec.</t>
   </si>
@@ -3152,6 +3152,10 @@
   <si>
     <t>CAN/LIN  통합</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compact RIO : 모듈</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6956,6 +6960,42 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="177" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="182" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="183" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="184" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="185" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="181" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="177" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="182" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="59" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7097,11 +7137,179 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="144" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="110" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="101" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="95" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="103" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="97" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7112,38 +7320,218 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="94" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="96" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="108" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -7157,16 +7545,7 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7175,15 +7554,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -7199,374 +7569,44 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="108" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="94" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="96" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="110" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="101" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="95" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="103" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="97" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -7607,6 +7647,87 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="172" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="167" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="178" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="173" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="174" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="176" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="168" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="169" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="157" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="159" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="161" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="160" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="128" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="158" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="179" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="162" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="178" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="173" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="176" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="168" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="169" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="128" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="158" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="160" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7617,15 +7738,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="164" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="159" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="167" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="157" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="170" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7664,116 +7776,8 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="171" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="172" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="178" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="173" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="176" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="168" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="169" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="128" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="158" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="160" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="168" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="169" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="178" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="173" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="174" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="176" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="161" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="160" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="128" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="158" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="179" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="162" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="180" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="177" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="182" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="183" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="184" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="185" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="181" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="177" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="182" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="59" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="186" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9032,7 +9036,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="341" t="s">
+      <c r="B5" s="353" t="s">
         <v>377</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -9064,7 +9068,7 @@
       <c r="M5" s="15"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="341"/>
+      <c r="B6" s="353"/>
       <c r="C6" s="16" t="s">
         <v>370</v>
       </c>
@@ -9094,7 +9098,7 @@
       <c r="M6" s="18"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="342" t="s">
+      <c r="B7" s="354" t="s">
         <v>378</v>
       </c>
       <c r="C7" s="105" t="s">
@@ -9126,7 +9130,7 @@
       <c r="M7" s="34"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="343"/>
+      <c r="B8" s="355"/>
       <c r="C8" s="35" t="s">
         <v>373</v>
       </c>
@@ -9156,7 +9160,7 @@
       <c r="M8" s="37"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="344" t="s">
+      <c r="B9" s="356" t="s">
         <v>379</v>
       </c>
       <c r="C9" s="68" t="s">
@@ -9188,7 +9192,7 @@
       <c r="M9" s="70"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="345"/>
+      <c r="B10" s="357"/>
       <c r="C10" s="68" t="s">
         <v>374</v>
       </c>
@@ -9218,7 +9222,7 @@
       <c r="M10" s="18"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="345"/>
+      <c r="B11" s="357"/>
       <c r="C11" s="68" t="s">
         <v>375</v>
       </c>
@@ -9248,7 +9252,7 @@
       <c r="M11" s="41"/>
     </row>
     <row r="12" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="346"/>
+      <c r="B12" s="358"/>
       <c r="C12" s="178" t="s">
         <v>376</v>
       </c>
@@ -9324,7 +9328,7 @@
       </c>
     </row>
     <row r="17" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="341" t="s">
+      <c r="B17" s="353" t="s">
         <v>83</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -9360,7 +9364,7 @@
       </c>
     </row>
     <row r="18" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="341"/>
+      <c r="B18" s="353"/>
       <c r="C18" s="16" t="s">
         <v>54</v>
       </c>
@@ -9394,7 +9398,7 @@
       </c>
     </row>
     <row r="19" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="341"/>
+      <c r="B19" s="353"/>
       <c r="C19" s="29" t="s">
         <v>55</v>
       </c>
@@ -9428,7 +9432,7 @@
       </c>
     </row>
     <row r="20" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="342" t="s">
+      <c r="B20" s="354" t="s">
         <v>85</v>
       </c>
       <c r="C20" s="32" t="s">
@@ -9464,7 +9468,7 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="343"/>
+      <c r="B21" s="355"/>
       <c r="C21" s="35" t="s">
         <v>57</v>
       </c>
@@ -9498,7 +9502,7 @@
       </c>
     </row>
     <row r="22" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="353" t="s">
+      <c r="B22" s="365" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="68" t="s">
@@ -9534,7 +9538,7 @@
       </c>
     </row>
     <row r="23" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="345"/>
+      <c r="B23" s="357"/>
       <c r="C23" s="22" t="s">
         <v>59</v>
       </c>
@@ -9568,7 +9572,7 @@
       </c>
     </row>
     <row r="24" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="345"/>
+      <c r="B24" s="357"/>
       <c r="C24" s="63" t="s">
         <v>71</v>
       </c>
@@ -9602,7 +9606,7 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="354"/>
+      <c r="B25" s="366"/>
       <c r="C25" s="71" t="s">
         <v>72</v>
       </c>
@@ -9637,7 +9641,7 @@
       <c r="N25" s="104"/>
     </row>
     <row r="26" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="355" t="s">
+      <c r="B26" s="367" t="s">
         <v>268</v>
       </c>
       <c r="C26" s="57" t="s">
@@ -9674,7 +9678,7 @@
       <c r="N26" s="114"/>
     </row>
     <row r="27" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="356"/>
+      <c r="B27" s="368"/>
       <c r="C27" s="24" t="s">
         <v>74</v>
       </c>
@@ -9708,7 +9712,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="356"/>
+      <c r="B28" s="368"/>
       <c r="C28" s="24" t="s">
         <v>75</v>
       </c>
@@ -9742,7 +9746,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="356"/>
+      <c r="B29" s="368"/>
       <c r="C29" s="113" t="s">
         <v>390</v>
       </c>
@@ -9776,7 +9780,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="357"/>
+      <c r="B30" s="369"/>
       <c r="C30" s="25" t="s">
         <v>394</v>
       </c>
@@ -9810,20 +9814,20 @@
       </c>
     </row>
     <row r="32" spans="2:14" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="364" t="s">
+      <c r="B32" s="376" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="364"/>
-      <c r="D32" s="364"/>
-      <c r="E32" s="364"/>
-      <c r="F32" s="364"/>
-      <c r="G32" s="364"/>
-      <c r="H32" s="364"/>
-      <c r="I32" s="364"/>
-      <c r="J32" s="364"/>
-      <c r="K32" s="364"/>
-      <c r="L32" s="364"/>
-      <c r="M32" s="364"/>
+      <c r="C32" s="376"/>
+      <c r="D32" s="376"/>
+      <c r="E32" s="376"/>
+      <c r="F32" s="376"/>
+      <c r="G32" s="376"/>
+      <c r="H32" s="376"/>
+      <c r="I32" s="376"/>
+      <c r="J32" s="376"/>
+      <c r="K32" s="376"/>
+      <c r="L32" s="376"/>
+      <c r="M32" s="376"/>
     </row>
     <row r="33" spans="2:16" ht="5.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
@@ -9867,7 +9871,7 @@
       </c>
     </row>
     <row r="35" spans="2:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="350" t="s">
+      <c r="B35" s="362" t="s">
         <v>693</v>
       </c>
       <c r="C35" s="52" t="s">
@@ -9901,7 +9905,7 @@
       <c r="M35" s="53"/>
     </row>
     <row r="36" spans="2:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="351"/>
+      <c r="B36" s="363"/>
       <c r="C36" s="120" t="s">
         <v>407</v>
       </c>
@@ -9936,7 +9940,7 @@
       </c>
     </row>
     <row r="37" spans="2:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="351"/>
+      <c r="B37" s="363"/>
       <c r="C37" s="120" t="s">
         <v>408</v>
       </c>
@@ -9968,7 +9972,7 @@
       <c r="M37" s="121"/>
     </row>
     <row r="38" spans="2:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="351"/>
+      <c r="B38" s="363"/>
       <c r="C38" s="120" t="s">
         <v>409</v>
       </c>
@@ -10000,7 +10004,7 @@
       <c r="M38" s="121"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="351"/>
+      <c r="B39" s="363"/>
       <c r="C39" s="120" t="s">
         <v>405</v>
       </c>
@@ -10036,7 +10040,7 @@
       </c>
     </row>
     <row r="40" spans="2:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="348"/>
+      <c r="B40" s="360"/>
       <c r="C40" s="22" t="s">
         <v>38</v>
       </c>
@@ -10072,7 +10076,7 @@
       </c>
     </row>
     <row r="41" spans="2:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="348"/>
+      <c r="B41" s="360"/>
       <c r="C41" s="22" t="s">
         <v>39</v>
       </c>
@@ -10108,7 +10112,7 @@
       </c>
     </row>
     <row r="42" spans="2:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="348"/>
+      <c r="B42" s="360"/>
       <c r="C42" s="22" t="s">
         <v>41</v>
       </c>
@@ -10144,7 +10148,7 @@
       </c>
     </row>
     <row r="43" spans="2:16" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="348"/>
+      <c r="B43" s="360"/>
       <c r="C43" s="16" t="s">
         <v>269</v>
       </c>
@@ -10180,7 +10184,7 @@
       </c>
     </row>
     <row r="44" spans="2:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="352"/>
+      <c r="B44" s="364"/>
       <c r="C44" s="55" t="s">
         <v>43</v>
       </c>
@@ -10214,7 +10218,7 @@
       </c>
     </row>
     <row r="45" spans="2:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="361" t="s">
+      <c r="B45" s="373" t="s">
         <v>87</v>
       </c>
       <c r="C45" s="83" t="s">
@@ -10248,7 +10252,7 @@
       </c>
     </row>
     <row r="46" spans="2:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="362"/>
+      <c r="B46" s="374"/>
       <c r="C46" s="21" t="s">
         <v>47</v>
       </c>
@@ -10280,7 +10284,7 @@
       </c>
     </row>
     <row r="47" spans="2:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="362"/>
+      <c r="B47" s="374"/>
       <c r="C47" s="21" t="s">
         <v>48</v>
       </c>
@@ -10314,7 +10318,7 @@
       </c>
     </row>
     <row r="48" spans="2:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="365"/>
+      <c r="B48" s="377"/>
       <c r="C48" s="113" t="s">
         <v>49</v>
       </c>
@@ -10348,7 +10352,7 @@
       </c>
     </row>
     <row r="49" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="365"/>
+      <c r="B49" s="377"/>
       <c r="C49" s="113" t="s">
         <v>404</v>
       </c>
@@ -10378,7 +10382,7 @@
       <c r="M49" s="118"/>
     </row>
     <row r="50" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="363"/>
+      <c r="B50" s="375"/>
       <c r="C50" s="35" t="s">
         <v>399</v>
       </c>
@@ -10408,7 +10412,7 @@
       <c r="M50" s="89"/>
     </row>
     <row r="51" spans="2:14" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="358" t="s">
+      <c r="B51" s="370" t="s">
         <v>18</v>
       </c>
       <c r="C51" s="76" t="s">
@@ -10445,7 +10449,7 @@
       <c r="N51" s="104"/>
     </row>
     <row r="52" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="359"/>
+      <c r="B52" s="371"/>
       <c r="C52" s="38" t="s">
         <v>22</v>
       </c>
@@ -10479,7 +10483,7 @@
       </c>
     </row>
     <row r="53" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="359"/>
+      <c r="B53" s="371"/>
       <c r="C53" s="38" t="s">
         <v>24</v>
       </c>
@@ -10513,7 +10517,7 @@
       </c>
     </row>
     <row r="54" spans="2:14" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="359"/>
+      <c r="B54" s="371"/>
       <c r="C54" s="38" t="s">
         <v>25</v>
       </c>
@@ -10547,7 +10551,7 @@
       </c>
     </row>
     <row r="55" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="360"/>
+      <c r="B55" s="372"/>
       <c r="C55" s="64" t="s">
         <v>26</v>
       </c>
@@ -10581,7 +10585,7 @@
       </c>
     </row>
     <row r="56" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="361" t="s">
+      <c r="B56" s="373" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="32" t="s">
@@ -10617,7 +10621,7 @@
       </c>
     </row>
     <row r="57" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="362"/>
+      <c r="B57" s="374"/>
       <c r="C57" s="21" t="s">
         <v>14</v>
       </c>
@@ -10651,7 +10655,7 @@
       </c>
     </row>
     <row r="58" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="362"/>
+      <c r="B58" s="374"/>
       <c r="C58" s="21" t="s">
         <v>16</v>
       </c>
@@ -10685,7 +10689,7 @@
       </c>
     </row>
     <row r="59" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="363"/>
+      <c r="B59" s="375"/>
       <c r="C59" s="35" t="s">
         <v>17</v>
       </c>
@@ -10719,7 +10723,7 @@
       </c>
     </row>
     <row r="60" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="347" t="s">
+      <c r="B60" s="359" t="s">
         <v>86</v>
       </c>
       <c r="C60" s="92" t="s">
@@ -10755,7 +10759,7 @@
       </c>
     </row>
     <row r="61" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="348"/>
+      <c r="B61" s="360"/>
       <c r="C61" s="94" t="s">
         <v>30</v>
       </c>
@@ -10789,7 +10793,7 @@
       </c>
     </row>
     <row r="62" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="348"/>
+      <c r="B62" s="360"/>
       <c r="C62" s="94" t="s">
         <v>368</v>
       </c>
@@ -10823,7 +10827,7 @@
       </c>
     </row>
     <row r="63" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="348"/>
+      <c r="B63" s="360"/>
       <c r="C63" s="94" t="s">
         <v>33</v>
       </c>
@@ -10857,7 +10861,7 @@
       </c>
     </row>
     <row r="64" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="348"/>
+      <c r="B64" s="360"/>
       <c r="C64" s="94" t="s">
         <v>34</v>
       </c>
@@ -10891,7 +10895,7 @@
       </c>
     </row>
     <row r="65" spans="2:13" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="349"/>
+      <c r="B65" s="361"/>
       <c r="C65" s="95" t="s">
         <v>35</v>
       </c>
@@ -11007,54 +11011,54 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="366" t="s">
+      <c r="B3" s="378" t="s">
         <v>655</v>
       </c>
       <c r="C3" s="157" t="s">
         <v>654</v>
       </c>
-      <c r="D3" s="369" t="s">
+      <c r="D3" s="381" t="s">
         <v>202</v>
       </c>
       <c r="E3" s="159">
         <v>1</v>
       </c>
-      <c r="F3" s="373" t="s">
+      <c r="F3" s="385" t="s">
         <v>213</v>
       </c>
-      <c r="G3" s="373"/>
-      <c r="H3" s="376" t="s">
+      <c r="G3" s="385"/>
+      <c r="H3" s="388" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="367"/>
+      <c r="B4" s="379"/>
       <c r="C4" s="158" t="s">
         <v>652</v>
       </c>
-      <c r="D4" s="370"/>
+      <c r="D4" s="382"/>
       <c r="E4" s="170">
         <v>4</v>
       </c>
-      <c r="F4" s="374"/>
-      <c r="G4" s="374"/>
-      <c r="H4" s="377"/>
+      <c r="F4" s="386"/>
+      <c r="G4" s="386"/>
+      <c r="H4" s="389"/>
     </row>
     <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="367"/>
+      <c r="B5" s="379"/>
       <c r="C5" s="158" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="371"/>
+      <c r="D5" s="383"/>
       <c r="E5" s="170">
         <v>8</v>
       </c>
-      <c r="F5" s="374"/>
-      <c r="G5" s="374"/>
-      <c r="H5" s="377"/>
+      <c r="F5" s="386"/>
+      <c r="G5" s="386"/>
+      <c r="H5" s="389"/>
     </row>
     <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="367"/>
+      <c r="B6" s="379"/>
       <c r="C6" s="158" t="s">
         <v>653</v>
       </c>
@@ -11064,55 +11068,55 @@
       <c r="E6" s="170">
         <v>14</v>
       </c>
-      <c r="F6" s="374"/>
-      <c r="G6" s="374"/>
-      <c r="H6" s="378"/>
+      <c r="F6" s="386"/>
+      <c r="G6" s="386"/>
+      <c r="H6" s="390"/>
     </row>
     <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="367"/>
+      <c r="B7" s="379"/>
       <c r="C7" s="158" t="s">
         <v>648</v>
       </c>
-      <c r="D7" s="372" t="s">
+      <c r="D7" s="384" t="s">
         <v>205</v>
       </c>
       <c r="E7" s="170">
         <v>1</v>
       </c>
-      <c r="F7" s="374"/>
-      <c r="G7" s="374"/>
-      <c r="H7" s="379" t="s">
+      <c r="F7" s="386"/>
+      <c r="G7" s="386"/>
+      <c r="H7" s="391" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="367"/>
+      <c r="B8" s="379"/>
       <c r="C8" s="158" t="s">
         <v>650</v>
       </c>
-      <c r="D8" s="372"/>
+      <c r="D8" s="384"/>
       <c r="E8" s="170">
         <v>4</v>
       </c>
-      <c r="F8" s="374"/>
-      <c r="G8" s="374"/>
-      <c r="H8" s="379"/>
+      <c r="F8" s="386"/>
+      <c r="G8" s="386"/>
+      <c r="H8" s="391"/>
     </row>
     <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="367"/>
+      <c r="B9" s="379"/>
       <c r="C9" s="158" t="s">
         <v>649</v>
       </c>
-      <c r="D9" s="372"/>
+      <c r="D9" s="384"/>
       <c r="E9" s="170">
         <v>8</v>
       </c>
-      <c r="F9" s="374"/>
-      <c r="G9" s="374"/>
-      <c r="H9" s="379"/>
+      <c r="F9" s="386"/>
+      <c r="G9" s="386"/>
+      <c r="H9" s="391"/>
     </row>
     <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="368"/>
+      <c r="B10" s="380"/>
       <c r="C10" s="182" t="s">
         <v>651</v>
       </c>
@@ -11122,8 +11126,8 @@
       <c r="E10" s="183">
         <v>1</v>
       </c>
-      <c r="F10" s="375"/>
-      <c r="G10" s="375"/>
+      <c r="F10" s="387"/>
+      <c r="G10" s="387"/>
       <c r="H10" s="184" t="s">
         <v>208</v>
       </c>
@@ -11204,7 +11208,7 @@
       </c>
     </row>
     <row r="5" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="385" t="s">
+      <c r="C5" s="397" t="s">
         <v>279</v>
       </c>
       <c r="D5" s="161" t="s">
@@ -11242,7 +11246,7 @@
       </c>
     </row>
     <row r="6" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="386"/>
+      <c r="C6" s="398"/>
       <c r="D6" s="162" t="s">
         <v>304</v>
       </c>
@@ -11278,7 +11282,7 @@
       </c>
     </row>
     <row r="7" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="386"/>
+      <c r="C7" s="398"/>
       <c r="D7" s="162" t="s">
         <v>346</v>
       </c>
@@ -11314,7 +11318,7 @@
       </c>
     </row>
     <row r="8" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="386"/>
+      <c r="C8" s="398"/>
       <c r="D8" s="162" t="s">
         <v>305</v>
       </c>
@@ -11350,7 +11354,7 @@
       </c>
     </row>
     <row r="9" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="386"/>
+      <c r="C9" s="398"/>
       <c r="D9" s="162" t="s">
         <v>306</v>
       </c>
@@ -11386,7 +11390,7 @@
       </c>
     </row>
     <row r="10" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="386"/>
+      <c r="C10" s="398"/>
       <c r="D10" s="162" t="s">
         <v>343</v>
       </c>
@@ -11422,7 +11426,7 @@
       </c>
     </row>
     <row r="11" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="386"/>
+      <c r="C11" s="398"/>
       <c r="D11" s="162" t="s">
         <v>307</v>
       </c>
@@ -11458,7 +11462,7 @@
       </c>
     </row>
     <row r="12" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="386"/>
+      <c r="C12" s="398"/>
       <c r="D12" s="162" t="s">
         <v>345</v>
       </c>
@@ -11494,7 +11498,7 @@
       </c>
     </row>
     <row r="13" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="386"/>
+      <c r="C13" s="398"/>
       <c r="D13" s="162" t="s">
         <v>308</v>
       </c>
@@ -11530,7 +11534,7 @@
       </c>
     </row>
     <row r="14" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="386"/>
+      <c r="C14" s="398"/>
       <c r="D14" s="162" t="s">
         <v>344</v>
       </c>
@@ -11566,17 +11570,17 @@
       </c>
     </row>
     <row r="15" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="386"/>
+      <c r="C15" s="398"/>
       <c r="D15" s="162" t="s">
         <v>330</v>
       </c>
       <c r="E15" s="130" t="s">
         <v>358</v>
       </c>
-      <c r="F15" s="380" t="s">
+      <c r="F15" s="392" t="s">
         <v>324</v>
       </c>
-      <c r="G15" s="380" t="s">
+      <c r="G15" s="392" t="s">
         <v>325</v>
       </c>
       <c r="H15" s="130" t="s">
@@ -11602,15 +11606,15 @@
       </c>
     </row>
     <row r="16" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="386"/>
+      <c r="C16" s="398"/>
       <c r="D16" s="162" t="s">
         <v>331</v>
       </c>
       <c r="E16" s="130" t="s">
         <v>358</v>
       </c>
-      <c r="F16" s="380"/>
-      <c r="G16" s="380"/>
+      <c r="F16" s="392"/>
+      <c r="G16" s="392"/>
       <c r="H16" s="130" t="s">
         <v>327</v>
       </c>
@@ -11634,15 +11638,15 @@
       </c>
     </row>
     <row r="17" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="386"/>
+      <c r="C17" s="398"/>
       <c r="D17" s="162" t="s">
         <v>332</v>
       </c>
       <c r="E17" s="130" t="s">
         <v>358</v>
       </c>
-      <c r="F17" s="380"/>
-      <c r="G17" s="380"/>
+      <c r="F17" s="392"/>
+      <c r="G17" s="392"/>
       <c r="H17" s="130" t="s">
         <v>327</v>
       </c>
@@ -11666,15 +11670,15 @@
       </c>
     </row>
     <row r="18" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="386"/>
+      <c r="C18" s="398"/>
       <c r="D18" s="162" t="s">
         <v>333</v>
       </c>
       <c r="E18" s="130" t="s">
         <v>358</v>
       </c>
-      <c r="F18" s="380"/>
-      <c r="G18" s="380"/>
+      <c r="F18" s="392"/>
+      <c r="G18" s="392"/>
       <c r="H18" s="130" t="s">
         <v>354</v>
       </c>
@@ -11698,15 +11702,15 @@
       </c>
     </row>
     <row r="19" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="386"/>
+      <c r="C19" s="398"/>
       <c r="D19" s="162" t="s">
         <v>334</v>
       </c>
       <c r="E19" s="130" t="s">
         <v>358</v>
       </c>
-      <c r="F19" s="380"/>
-      <c r="G19" s="380"/>
+      <c r="F19" s="392"/>
+      <c r="G19" s="392"/>
       <c r="H19" s="130" t="s">
         <v>328</v>
       </c>
@@ -11730,15 +11734,15 @@
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C20" s="387"/>
+      <c r="C20" s="399"/>
       <c r="D20" s="163" t="s">
         <v>335</v>
       </c>
       <c r="E20" s="150" t="s">
         <v>359</v>
       </c>
-      <c r="F20" s="381"/>
-      <c r="G20" s="381"/>
+      <c r="F20" s="393"/>
+      <c r="G20" s="393"/>
       <c r="H20" s="150" t="s">
         <v>328</v>
       </c>
@@ -11762,7 +11766,7 @@
       </c>
     </row>
     <row r="21" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="382" t="s">
+      <c r="C21" s="394" t="s">
         <v>280</v>
       </c>
       <c r="D21" s="164" t="s">
@@ -11800,7 +11804,7 @@
       </c>
     </row>
     <row r="22" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="383"/>
+      <c r="C22" s="395"/>
       <c r="D22" s="165" t="s">
         <v>319</v>
       </c>
@@ -11836,7 +11840,7 @@
       </c>
     </row>
     <row r="23" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="383"/>
+      <c r="C23" s="395"/>
       <c r="D23" s="165" t="s">
         <v>320</v>
       </c>
@@ -11872,7 +11876,7 @@
       </c>
     </row>
     <row r="24" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="383"/>
+      <c r="C24" s="395"/>
       <c r="D24" s="165" t="s">
         <v>321</v>
       </c>
@@ -11908,7 +11912,7 @@
       </c>
     </row>
     <row r="25" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="383"/>
+      <c r="C25" s="395"/>
       <c r="D25" s="165" t="s">
         <v>315</v>
       </c>
@@ -11944,7 +11948,7 @@
       </c>
     </row>
     <row r="26" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="383"/>
+      <c r="C26" s="395"/>
       <c r="D26" s="165" t="s">
         <v>316</v>
       </c>
@@ -11980,7 +11984,7 @@
       </c>
     </row>
     <row r="27" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="383"/>
+      <c r="C27" s="395"/>
       <c r="D27" s="165" t="s">
         <v>322</v>
       </c>
@@ -12016,7 +12020,7 @@
       </c>
     </row>
     <row r="28" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="384"/>
+      <c r="C28" s="396"/>
       <c r="D28" s="166" t="s">
         <v>323</v>
       </c>
@@ -12074,10 +12078,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:O110"/>
+  <dimension ref="B1:O111"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J117" sqref="J117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -12130,44 +12134,44 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="418" t="s">
+      <c r="B4" s="540" t="s">
         <v>274</v>
       </c>
-      <c r="C4" s="402" t="s">
+      <c r="C4" s="425" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="404" t="s">
+      <c r="D4" s="532" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="406" t="s">
+      <c r="E4" s="534" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="406"/>
+      <c r="F4" s="534"/>
       <c r="G4" s="185" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="420" t="s">
+      <c r="H4" s="542" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="433" t="s">
+      <c r="I4" s="447" t="s">
         <v>215</v>
       </c>
-      <c r="J4" s="433" t="s">
+      <c r="J4" s="447" t="s">
         <v>214</v>
       </c>
-      <c r="K4" s="433" t="s">
+      <c r="K4" s="447" t="s">
         <v>494</v>
       </c>
-      <c r="L4" s="431" t="s">
+      <c r="L4" s="547" t="s">
         <v>493</v>
       </c>
       <c r="M4" s="186"/>
       <c r="N4" s="186"/>
     </row>
     <row r="5" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="419"/>
-      <c r="C5" s="403"/>
-      <c r="D5" s="405"/>
+      <c r="B5" s="541"/>
+      <c r="C5" s="426"/>
+      <c r="D5" s="533"/>
       <c r="E5" s="187" t="s">
         <v>93</v>
       </c>
@@ -12177,16 +12181,16 @@
       <c r="G5" s="189" t="s">
         <v>266</v>
       </c>
-      <c r="H5" s="421"/>
-      <c r="I5" s="434"/>
-      <c r="J5" s="434"/>
-      <c r="K5" s="434"/>
-      <c r="L5" s="432"/>
+      <c r="H5" s="543"/>
+      <c r="I5" s="448"/>
+      <c r="J5" s="448"/>
+      <c r="K5" s="448"/>
+      <c r="L5" s="548"/>
       <c r="M5" s="186"/>
       <c r="N5" s="186"/>
     </row>
     <row r="6" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="435" t="s">
+      <c r="B6" s="416" t="s">
         <v>225</v>
       </c>
       <c r="C6" s="190" t="s">
@@ -12219,23 +12223,23 @@
       <c r="N6" s="186"/>
     </row>
     <row r="7" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="436"/>
+      <c r="B7" s="417"/>
       <c r="C7" s="194" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="412" t="s">
+      <c r="D7" s="537" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="400">
+      <c r="E7" s="440">
         <v>32</v>
       </c>
-      <c r="F7" s="400">
+      <c r="F7" s="440">
         <v>16</v>
       </c>
-      <c r="G7" s="400" t="s">
+      <c r="G7" s="440" t="s">
         <v>247</v>
       </c>
-      <c r="H7" s="400" t="s">
+      <c r="H7" s="440" t="s">
         <v>100</v>
       </c>
       <c r="I7" s="195"/>
@@ -12248,15 +12252,15 @@
       <c r="N7" s="186"/>
     </row>
     <row r="8" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="436"/>
+      <c r="B8" s="417"/>
       <c r="C8" s="194" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="412"/>
-      <c r="E8" s="400"/>
-      <c r="F8" s="400"/>
-      <c r="G8" s="400"/>
-      <c r="H8" s="400"/>
+      <c r="D8" s="537"/>
+      <c r="E8" s="440"/>
+      <c r="F8" s="440"/>
+      <c r="G8" s="440"/>
+      <c r="H8" s="440"/>
       <c r="I8" s="195"/>
       <c r="J8" s="195"/>
       <c r="K8" s="195" t="s">
@@ -12267,11 +12271,11 @@
       <c r="N8" s="186"/>
     </row>
     <row r="9" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="436"/>
+      <c r="B9" s="417"/>
       <c r="C9" s="194" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="416" t="s">
+      <c r="D9" s="494" t="s">
         <v>533</v>
       </c>
       <c r="E9" s="195">
@@ -12294,57 +12298,57 @@
       <c r="N9" s="186"/>
     </row>
     <row r="10" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="436"/>
+      <c r="B10" s="417"/>
       <c r="C10" s="194" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="474"/>
+      <c r="D10" s="495"/>
       <c r="E10" s="195"/>
       <c r="F10" s="195">
         <v>4</v>
       </c>
-      <c r="G10" s="400" t="s">
+      <c r="G10" s="440" t="s">
         <v>230</v>
       </c>
-      <c r="H10" s="422" t="s">
+      <c r="H10" s="449" t="s">
         <v>100</v>
       </c>
       <c r="I10" s="195"/>
-      <c r="J10" s="422" t="s">
+      <c r="J10" s="449" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="422" t="s">
+      <c r="K10" s="449" t="s">
         <v>496</v>
       </c>
-      <c r="L10" s="424"/>
+      <c r="L10" s="544"/>
       <c r="M10" s="186"/>
       <c r="N10" s="186"/>
     </row>
     <row r="11" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="436"/>
+      <c r="B11" s="417"/>
       <c r="C11" s="194" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="474"/>
+      <c r="D11" s="495"/>
       <c r="E11" s="195"/>
       <c r="F11" s="195">
         <v>16</v>
       </c>
-      <c r="G11" s="400"/>
-      <c r="H11" s="423"/>
+      <c r="G11" s="440"/>
+      <c r="H11" s="450"/>
       <c r="I11" s="195"/>
-      <c r="J11" s="423"/>
-      <c r="K11" s="423"/>
-      <c r="L11" s="425"/>
+      <c r="J11" s="450"/>
+      <c r="K11" s="450"/>
+      <c r="L11" s="529"/>
       <c r="M11" s="186"/>
       <c r="N11" s="186"/>
     </row>
     <row r="12" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="436"/>
+      <c r="B12" s="417"/>
       <c r="C12" s="194" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="474"/>
+      <c r="D12" s="495"/>
       <c r="E12" s="195"/>
       <c r="F12" s="195">
         <v>4</v>
@@ -12352,22 +12356,22 @@
       <c r="G12" s="195" t="s">
         <v>245</v>
       </c>
-      <c r="H12" s="423"/>
+      <c r="H12" s="450"/>
       <c r="I12" s="195" t="s">
         <v>95</v>
       </c>
-      <c r="J12" s="423"/>
-      <c r="K12" s="423"/>
-      <c r="L12" s="425"/>
+      <c r="J12" s="450"/>
+      <c r="K12" s="450"/>
+      <c r="L12" s="529"/>
       <c r="M12" s="186"/>
       <c r="N12" s="186"/>
     </row>
     <row r="13" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="436"/>
+      <c r="B13" s="417"/>
       <c r="C13" s="194" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="474"/>
+      <c r="D13" s="495"/>
       <c r="E13" s="195"/>
       <c r="F13" s="195">
         <v>4</v>
@@ -12375,22 +12379,22 @@
       <c r="G13" s="195" t="s">
         <v>219</v>
       </c>
-      <c r="H13" s="423"/>
+      <c r="H13" s="450"/>
       <c r="I13" s="195" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="423"/>
-      <c r="K13" s="423"/>
-      <c r="L13" s="425"/>
+      <c r="J13" s="450"/>
+      <c r="K13" s="450"/>
+      <c r="L13" s="529"/>
       <c r="M13" s="186"/>
       <c r="N13" s="186"/>
     </row>
     <row r="14" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="436"/>
+      <c r="B14" s="417"/>
       <c r="C14" s="194" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="474"/>
+      <c r="D14" s="495"/>
       <c r="E14" s="195">
         <v>32</v>
       </c>
@@ -12400,7 +12404,7 @@
       <c r="G14" s="195">
         <v>500</v>
       </c>
-      <c r="H14" s="422" t="s">
+      <c r="H14" s="449" t="s">
         <v>102</v>
       </c>
       <c r="I14" s="195"/>
@@ -12415,11 +12419,11 @@
       <c r="N14" s="186"/>
     </row>
     <row r="15" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="436"/>
+      <c r="B15" s="417"/>
       <c r="C15" s="194" t="s">
         <v>425</v>
       </c>
-      <c r="D15" s="474"/>
+      <c r="D15" s="495"/>
       <c r="E15" s="195"/>
       <c r="F15" s="195">
         <v>8</v>
@@ -12427,7 +12431,7 @@
       <c r="G15" s="195" t="s">
         <v>426</v>
       </c>
-      <c r="H15" s="423"/>
+      <c r="H15" s="450"/>
       <c r="I15" s="195" t="s">
         <v>95</v>
       </c>
@@ -12442,11 +12446,11 @@
       <c r="N15" s="186"/>
     </row>
     <row r="16" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="436"/>
+      <c r="B16" s="417"/>
       <c r="C16" s="194" t="s">
         <v>424</v>
       </c>
-      <c r="D16" s="474"/>
+      <c r="D16" s="495"/>
       <c r="E16" s="195"/>
       <c r="F16" s="195">
         <v>16</v>
@@ -12454,7 +12458,7 @@
       <c r="G16" s="195" t="s">
         <v>237</v>
       </c>
-      <c r="H16" s="423"/>
+      <c r="H16" s="450"/>
       <c r="I16" s="195"/>
       <c r="J16" s="195" t="s">
         <v>124</v>
@@ -12467,11 +12471,11 @@
       <c r="N16" s="186"/>
     </row>
     <row r="17" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="436"/>
+      <c r="B17" s="417"/>
       <c r="C17" s="194" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="414"/>
+      <c r="D17" s="496"/>
       <c r="E17" s="195"/>
       <c r="F17" s="195">
         <v>4</v>
@@ -12479,7 +12483,7 @@
       <c r="G17" s="195" t="s">
         <v>244</v>
       </c>
-      <c r="H17" s="426"/>
+      <c r="H17" s="439"/>
       <c r="I17" s="195" t="s">
         <v>95</v>
       </c>
@@ -12494,11 +12498,11 @@
       <c r="N17" s="186"/>
     </row>
     <row r="18" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="436"/>
+      <c r="B18" s="417"/>
       <c r="C18" s="194" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="415" t="s">
+      <c r="D18" s="502" t="s">
         <v>113</v>
       </c>
       <c r="E18" s="195">
@@ -12521,11 +12525,11 @@
       <c r="N18" s="186"/>
     </row>
     <row r="19" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="436"/>
+      <c r="B19" s="417"/>
       <c r="C19" s="194" t="s">
         <v>427</v>
       </c>
-      <c r="D19" s="416"/>
+      <c r="D19" s="494"/>
       <c r="E19" s="197"/>
       <c r="F19" s="197">
         <v>8</v>
@@ -12533,7 +12537,7 @@
       <c r="G19" s="195" t="s">
         <v>426</v>
       </c>
-      <c r="H19" s="422" t="s">
+      <c r="H19" s="449" t="s">
         <v>102</v>
       </c>
       <c r="I19" s="195" t="s">
@@ -12550,11 +12554,11 @@
       <c r="N19" s="186"/>
     </row>
     <row r="20" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="436"/>
+      <c r="B20" s="417"/>
       <c r="C20" s="194" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="415"/>
+      <c r="D20" s="502"/>
       <c r="E20" s="195"/>
       <c r="F20" s="195">
         <v>4</v>
@@ -12562,7 +12566,7 @@
       <c r="G20" s="195" t="s">
         <v>236</v>
       </c>
-      <c r="H20" s="426"/>
+      <c r="H20" s="439"/>
       <c r="I20" s="195" t="s">
         <v>95</v>
       </c>
@@ -12577,7 +12581,7 @@
       <c r="N20" s="186"/>
     </row>
     <row r="21" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="436"/>
+      <c r="B21" s="417"/>
       <c r="C21" s="198" t="s">
         <v>428</v>
       </c>
@@ -12604,7 +12608,7 @@
       <c r="N21" s="186"/>
     </row>
     <row r="22" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="436"/>
+      <c r="B22" s="417"/>
       <c r="C22" s="203" t="s">
         <v>117</v>
       </c>
@@ -12615,25 +12619,25 @@
         <v>3</v>
       </c>
       <c r="F22" s="205"/>
-      <c r="G22" s="482" t="s">
+      <c r="G22" s="451" t="s">
         <v>242</v>
       </c>
-      <c r="H22" s="482" t="s">
+      <c r="H22" s="451" t="s">
         <v>102</v>
       </c>
       <c r="I22" s="205"/>
-      <c r="J22" s="482" t="s">
+      <c r="J22" s="451" t="s">
         <v>95</v>
       </c>
-      <c r="K22" s="516" t="s">
+      <c r="K22" s="461" t="s">
         <v>496</v>
       </c>
-      <c r="L22" s="438"/>
+      <c r="L22" s="549"/>
       <c r="M22" s="186"/>
       <c r="N22" s="186"/>
     </row>
     <row r="23" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="436"/>
+      <c r="B23" s="417"/>
       <c r="C23" s="194" t="s">
         <v>110</v>
       </c>
@@ -12644,19 +12648,19 @@
       <c r="F23" s="195">
         <v>3</v>
       </c>
-      <c r="G23" s="400"/>
-      <c r="H23" s="400"/>
+      <c r="G23" s="440"/>
+      <c r="H23" s="440"/>
       <c r="I23" s="195" t="s">
         <v>95</v>
       </c>
-      <c r="J23" s="400"/>
-      <c r="K23" s="400"/>
-      <c r="L23" s="439"/>
+      <c r="J23" s="440"/>
+      <c r="K23" s="440"/>
+      <c r="L23" s="522"/>
       <c r="M23" s="186"/>
       <c r="N23" s="186"/>
     </row>
     <row r="24" spans="2:15" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="437"/>
+      <c r="B24" s="418"/>
       <c r="C24" s="208" t="s">
         <v>118</v>
       </c>
@@ -12667,23 +12671,23 @@
         <v>3</v>
       </c>
       <c r="F24" s="210"/>
-      <c r="G24" s="483"/>
-      <c r="H24" s="483"/>
+      <c r="G24" s="441"/>
+      <c r="H24" s="441"/>
       <c r="I24" s="210"/>
-      <c r="J24" s="483"/>
-      <c r="K24" s="483"/>
-      <c r="L24" s="440"/>
+      <c r="J24" s="441"/>
+      <c r="K24" s="441"/>
+      <c r="L24" s="550"/>
       <c r="M24" s="186"/>
       <c r="N24" s="186"/>
     </row>
     <row r="25" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="441" t="s">
+      <c r="B25" s="470" t="s">
         <v>226</v>
       </c>
       <c r="C25" s="211" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="464" t="s">
+      <c r="D25" s="520" t="s">
         <v>121</v>
       </c>
       <c r="E25" s="212">
@@ -12706,11 +12710,11 @@
       <c r="N25" s="186"/>
     </row>
     <row r="26" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="442"/>
+      <c r="B26" s="503"/>
       <c r="C26" s="214" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="464"/>
+      <c r="D26" s="520"/>
       <c r="E26" s="215"/>
       <c r="F26" s="215">
         <v>2</v>
@@ -12731,7 +12735,7 @@
       <c r="N26" s="186"/>
     </row>
     <row r="27" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="442"/>
+      <c r="B27" s="503"/>
       <c r="C27" s="217" t="s">
         <v>123</v>
       </c>
@@ -12742,27 +12746,27 @@
       <c r="F27" s="219">
         <v>4</v>
       </c>
-      <c r="G27" s="410" t="s">
+      <c r="G27" s="452" t="s">
         <v>241</v>
       </c>
-      <c r="H27" s="410" t="s">
+      <c r="H27" s="452" t="s">
         <v>125</v>
       </c>
-      <c r="I27" s="410" t="s">
+      <c r="I27" s="452" t="s">
         <v>124</v>
       </c>
-      <c r="J27" s="410" t="s">
+      <c r="J27" s="452" t="s">
         <v>124</v>
       </c>
-      <c r="K27" s="410" t="s">
+      <c r="K27" s="452" t="s">
         <v>496</v>
       </c>
-      <c r="L27" s="407"/>
+      <c r="L27" s="535"/>
       <c r="M27" s="186"/>
       <c r="N27" s="186"/>
     </row>
     <row r="28" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="442"/>
+      <c r="B28" s="503"/>
       <c r="C28" s="220" t="s">
         <v>126</v>
       </c>
@@ -12773,18 +12777,18 @@
       <c r="F28" s="222">
         <v>3</v>
       </c>
-      <c r="G28" s="401"/>
-      <c r="H28" s="401"/>
-      <c r="I28" s="401"/>
-      <c r="J28" s="401"/>
-      <c r="K28" s="401"/>
-      <c r="L28" s="408"/>
+      <c r="G28" s="434"/>
+      <c r="H28" s="434"/>
+      <c r="I28" s="434"/>
+      <c r="J28" s="434"/>
+      <c r="K28" s="434"/>
+      <c r="L28" s="524"/>
       <c r="M28" s="186"/>
       <c r="N28" s="186"/>
       <c r="O28" s="7"/>
     </row>
     <row r="29" spans="2:15" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="443"/>
+      <c r="B29" s="504"/>
       <c r="C29" s="223" t="s">
         <v>127</v>
       </c>
@@ -12795,23 +12799,23 @@
       <c r="F29" s="225">
         <v>3</v>
       </c>
-      <c r="G29" s="411"/>
-      <c r="H29" s="411"/>
-      <c r="I29" s="411"/>
-      <c r="J29" s="411"/>
-      <c r="K29" s="411"/>
-      <c r="L29" s="409"/>
+      <c r="G29" s="438"/>
+      <c r="H29" s="438"/>
+      <c r="I29" s="438"/>
+      <c r="J29" s="438"/>
+      <c r="K29" s="438"/>
+      <c r="L29" s="536"/>
       <c r="M29" s="186"/>
       <c r="N29" s="186"/>
     </row>
     <row r="30" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="444" t="s">
+      <c r="B30" s="505" t="s">
         <v>227</v>
       </c>
       <c r="C30" s="190" t="s">
         <v>433</v>
       </c>
-      <c r="D30" s="413" t="s">
+      <c r="D30" s="538" t="s">
         <v>128</v>
       </c>
       <c r="E30" s="226"/>
@@ -12821,7 +12825,7 @@
       <c r="G30" s="226">
         <v>14</v>
       </c>
-      <c r="H30" s="427" t="s">
+      <c r="H30" s="545" t="s">
         <v>102</v>
       </c>
       <c r="I30" s="226"/>
@@ -12834,11 +12838,11 @@
       <c r="N30" s="186"/>
     </row>
     <row r="31" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="445"/>
+      <c r="B31" s="506"/>
       <c r="C31" s="227" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="414"/>
+      <c r="D31" s="496"/>
       <c r="E31" s="192"/>
       <c r="F31" s="192">
         <v>4</v>
@@ -12846,7 +12850,7 @@
       <c r="G31" s="192">
         <v>14</v>
       </c>
-      <c r="H31" s="428"/>
+      <c r="H31" s="546"/>
       <c r="I31" s="192"/>
       <c r="J31" s="192"/>
       <c r="K31" s="192" t="s">
@@ -12857,11 +12861,11 @@
       <c r="N31" s="186"/>
     </row>
     <row r="32" spans="2:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="446"/>
+      <c r="B32" s="507"/>
       <c r="C32" s="194" t="s">
         <v>129</v>
       </c>
-      <c r="D32" s="415"/>
+      <c r="D32" s="502"/>
       <c r="E32" s="195"/>
       <c r="F32" s="195">
         <v>8</v>
@@ -12869,7 +12873,7 @@
       <c r="G32" s="195" t="s">
         <v>229</v>
       </c>
-      <c r="H32" s="428"/>
+      <c r="H32" s="546"/>
       <c r="I32" s="195" t="s">
         <v>95</v>
       </c>
@@ -12884,11 +12888,11 @@
       <c r="N32" s="186"/>
     </row>
     <row r="33" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="446"/>
+      <c r="B33" s="507"/>
       <c r="C33" s="194" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="415"/>
+      <c r="D33" s="502"/>
       <c r="E33" s="195"/>
       <c r="F33" s="195">
         <v>16</v>
@@ -12896,7 +12900,7 @@
       <c r="G33" s="195">
         <v>75</v>
       </c>
-      <c r="H33" s="428"/>
+      <c r="H33" s="546"/>
       <c r="I33" s="195"/>
       <c r="J33" s="195"/>
       <c r="K33" s="192" t="s">
@@ -12907,11 +12911,11 @@
       <c r="N33" s="186"/>
     </row>
     <row r="34" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="446"/>
+      <c r="B34" s="507"/>
       <c r="C34" s="229" t="s">
         <v>131</v>
       </c>
-      <c r="D34" s="416"/>
+      <c r="D34" s="494"/>
       <c r="E34" s="197"/>
       <c r="F34" s="197">
         <v>16</v>
@@ -12919,7 +12923,7 @@
       <c r="G34" s="197">
         <v>68</v>
       </c>
-      <c r="H34" s="428"/>
+      <c r="H34" s="546"/>
       <c r="I34" s="197"/>
       <c r="J34" s="197"/>
       <c r="K34" s="192" t="s">
@@ -12930,21 +12934,21 @@
       <c r="N34" s="186"/>
     </row>
     <row r="35" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="446"/>
+      <c r="B35" s="507"/>
       <c r="C35" s="231" t="s">
         <v>132</v>
       </c>
-      <c r="D35" s="417" t="s">
+      <c r="D35" s="539" t="s">
         <v>133</v>
       </c>
       <c r="E35" s="232"/>
       <c r="F35" s="232">
         <v>8</v>
       </c>
-      <c r="G35" s="429">
+      <c r="G35" s="497">
         <v>400</v>
       </c>
-      <c r="H35" s="429" t="s">
+      <c r="H35" s="497" t="s">
         <v>102</v>
       </c>
       <c r="I35" s="232"/>
@@ -12957,17 +12961,17 @@
       <c r="N35" s="234"/>
     </row>
     <row r="36" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="446"/>
+      <c r="B36" s="507"/>
       <c r="C36" s="194" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="415"/>
+      <c r="D36" s="502"/>
       <c r="E36" s="195"/>
       <c r="F36" s="195">
         <v>4</v>
       </c>
-      <c r="G36" s="423"/>
-      <c r="H36" s="423"/>
+      <c r="G36" s="450"/>
+      <c r="H36" s="450"/>
       <c r="I36" s="195"/>
       <c r="J36" s="195"/>
       <c r="K36" s="192" t="s">
@@ -12978,7 +12982,7 @@
       <c r="N36" s="186"/>
     </row>
     <row r="37" spans="2:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="447"/>
+      <c r="B37" s="508"/>
       <c r="C37" s="208" t="s">
         <v>135</v>
       </c>
@@ -12989,8 +12993,8 @@
       <c r="F37" s="210">
         <v>8</v>
       </c>
-      <c r="G37" s="430"/>
-      <c r="H37" s="430"/>
+      <c r="G37" s="473"/>
+      <c r="H37" s="473"/>
       <c r="I37" s="210"/>
       <c r="J37" s="210"/>
       <c r="K37" s="192" t="s">
@@ -13001,23 +13005,23 @@
       <c r="N37" s="186"/>
     </row>
     <row r="38" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="448" t="s">
+      <c r="B38" s="509" t="s">
         <v>228</v>
       </c>
       <c r="C38" s="236" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="461" t="s">
+      <c r="D38" s="518" t="s">
         <v>137</v>
       </c>
       <c r="E38" s="237"/>
       <c r="F38" s="237">
         <v>8</v>
       </c>
-      <c r="G38" s="463">
+      <c r="G38" s="498">
         <v>400</v>
       </c>
-      <c r="H38" s="481" t="s">
+      <c r="H38" s="487" t="s">
         <v>102</v>
       </c>
       <c r="I38" s="237"/>
@@ -13030,17 +13034,17 @@
       <c r="N38" s="186"/>
     </row>
     <row r="39" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="442"/>
+      <c r="B39" s="503"/>
       <c r="C39" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="462"/>
+      <c r="D39" s="519"/>
       <c r="E39" s="222"/>
       <c r="F39" s="222">
         <v>4</v>
       </c>
-      <c r="G39" s="391"/>
-      <c r="H39" s="401"/>
+      <c r="G39" s="459"/>
+      <c r="H39" s="434"/>
       <c r="I39" s="222"/>
       <c r="J39" s="222"/>
       <c r="K39" s="222" t="s">
@@ -13051,7 +13055,7 @@
       <c r="N39" s="186"/>
     </row>
     <row r="40" spans="2:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="449"/>
+      <c r="B40" s="471"/>
       <c r="C40" s="223" t="s">
         <v>135</v>
       </c>
@@ -13062,8 +13066,8 @@
       <c r="F40" s="225">
         <v>8</v>
       </c>
-      <c r="G40" s="392"/>
-      <c r="H40" s="411"/>
+      <c r="G40" s="460"/>
+      <c r="H40" s="438"/>
       <c r="I40" s="225"/>
       <c r="J40" s="225"/>
       <c r="K40" s="225" t="s">
@@ -13073,8 +13077,8 @@
       <c r="M40" s="186"/>
       <c r="N40" s="186"/>
     </row>
-    <row r="41" spans="2:14" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B41" s="465" t="s">
+    <row r="41" spans="2:14" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="B41" s="462" t="s">
         <v>217</v>
       </c>
       <c r="C41" s="227" t="s">
@@ -13084,26 +13088,26 @@
         <v>434</v>
       </c>
       <c r="E41" s="192"/>
-      <c r="F41" s="426">
+      <c r="F41" s="439">
         <v>8</v>
       </c>
-      <c r="G41" s="426" t="s">
+      <c r="G41" s="439" t="s">
         <v>237</v>
       </c>
-      <c r="H41" s="426"/>
+      <c r="H41" s="439"/>
       <c r="I41" s="192"/>
-      <c r="J41" s="426" t="s">
+      <c r="J41" s="439" t="s">
         <v>95</v>
       </c>
-      <c r="K41" s="426" t="s">
+      <c r="K41" s="439" t="s">
         <v>496</v>
       </c>
-      <c r="L41" s="468"/>
+      <c r="L41" s="521"/>
       <c r="M41" s="243"/>
       <c r="N41" s="243"/>
     </row>
     <row r="42" spans="2:14" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="466"/>
+      <c r="B42" s="463"/>
       <c r="C42" s="194" t="s">
         <v>140</v>
       </c>
@@ -13111,18 +13115,18 @@
         <v>435</v>
       </c>
       <c r="E42" s="195"/>
-      <c r="F42" s="400"/>
-      <c r="G42" s="400"/>
-      <c r="H42" s="400"/>
+      <c r="F42" s="440"/>
+      <c r="G42" s="440"/>
+      <c r="H42" s="440"/>
       <c r="I42" s="195"/>
-      <c r="J42" s="400"/>
-      <c r="K42" s="400"/>
-      <c r="L42" s="439"/>
+      <c r="J42" s="440"/>
+      <c r="K42" s="440"/>
+      <c r="L42" s="522"/>
       <c r="M42" s="243"/>
       <c r="N42" s="243"/>
     </row>
     <row r="43" spans="2:14" s="8" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="467"/>
+      <c r="B43" s="464"/>
       <c r="C43" s="229" t="s">
         <v>141</v>
       </c>
@@ -13136,7 +13140,7 @@
       <c r="G43" s="197" t="s">
         <v>236</v>
       </c>
-      <c r="H43" s="422"/>
+      <c r="H43" s="449"/>
       <c r="I43" s="197"/>
       <c r="J43" s="197" t="s">
         <v>95</v>
@@ -13149,13 +13153,13 @@
       <c r="N43" s="243"/>
     </row>
     <row r="44" spans="2:14" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="456" t="s">
+      <c r="B44" s="465" t="s">
         <v>221</v>
       </c>
       <c r="C44" s="236" t="s">
         <v>143</v>
       </c>
-      <c r="D44" s="459" t="s">
+      <c r="D44" s="516" t="s">
         <v>222</v>
       </c>
       <c r="E44" s="237"/>
@@ -13165,26 +13169,26 @@
       <c r="G44" s="237" t="s">
         <v>235</v>
       </c>
-      <c r="H44" s="481" t="s">
+      <c r="H44" s="487" t="s">
         <v>102</v>
       </c>
       <c r="I44" s="237"/>
-      <c r="J44" s="512" t="s">
+      <c r="J44" s="453" t="s">
         <v>220</v>
       </c>
-      <c r="K44" s="512" t="s">
+      <c r="K44" s="453" t="s">
         <v>496</v>
       </c>
-      <c r="L44" s="453"/>
+      <c r="L44" s="513"/>
       <c r="M44" s="243"/>
       <c r="N44" s="243"/>
     </row>
     <row r="45" spans="2:14" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="457"/>
+      <c r="B45" s="466"/>
       <c r="C45" s="220" t="s">
         <v>144</v>
       </c>
-      <c r="D45" s="460"/>
+      <c r="D45" s="517"/>
       <c r="E45" s="222"/>
       <c r="F45" s="222">
         <v>3</v>
@@ -13192,16 +13196,16 @@
       <c r="G45" s="222" t="s">
         <v>234</v>
       </c>
-      <c r="H45" s="401"/>
+      <c r="H45" s="434"/>
       <c r="I45" s="222"/>
-      <c r="J45" s="513"/>
-      <c r="K45" s="513"/>
-      <c r="L45" s="454"/>
+      <c r="J45" s="454"/>
+      <c r="K45" s="454"/>
+      <c r="L45" s="514"/>
       <c r="M45" s="243"/>
       <c r="N45" s="243"/>
     </row>
     <row r="46" spans="2:14" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="458"/>
+      <c r="B46" s="467"/>
       <c r="C46" s="223" t="s">
         <v>145</v>
       </c>
@@ -13215,16 +13219,16 @@
       <c r="G46" s="225" t="s">
         <v>233</v>
       </c>
-      <c r="H46" s="411"/>
+      <c r="H46" s="438"/>
       <c r="I46" s="225"/>
-      <c r="J46" s="514"/>
-      <c r="K46" s="514"/>
-      <c r="L46" s="455"/>
+      <c r="J46" s="455"/>
+      <c r="K46" s="455"/>
+      <c r="L46" s="515"/>
       <c r="M46" s="243"/>
       <c r="N46" s="243"/>
     </row>
     <row r="47" spans="2:14" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="435" t="s">
+      <c r="B47" s="416" t="s">
         <v>216</v>
       </c>
       <c r="C47" s="190" t="s">
@@ -13244,22 +13248,22 @@
         <v>125</v>
       </c>
       <c r="I47" s="226"/>
-      <c r="J47" s="515" t="s">
+      <c r="J47" s="456" t="s">
         <v>95</v>
       </c>
-      <c r="K47" s="515" t="s">
+      <c r="K47" s="456" t="s">
         <v>496</v>
       </c>
-      <c r="L47" s="473"/>
+      <c r="L47" s="528"/>
       <c r="M47" s="243"/>
       <c r="N47" s="243"/>
     </row>
     <row r="48" spans="2:14" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="436"/>
+      <c r="B48" s="417"/>
       <c r="C48" s="194" t="s">
         <v>436</v>
       </c>
-      <c r="D48" s="416" t="s">
+      <c r="D48" s="494" t="s">
         <v>148</v>
       </c>
       <c r="E48" s="200"/>
@@ -13269,22 +13273,22 @@
       <c r="G48" s="200" t="s">
         <v>437</v>
       </c>
-      <c r="H48" s="422" t="s">
+      <c r="H48" s="449" t="s">
         <v>238</v>
       </c>
       <c r="I48" s="192"/>
-      <c r="J48" s="423"/>
-      <c r="K48" s="423"/>
-      <c r="L48" s="425"/>
+      <c r="J48" s="450"/>
+      <c r="K48" s="450"/>
+      <c r="L48" s="529"/>
       <c r="M48" s="243"/>
       <c r="N48" s="243"/>
     </row>
     <row r="49" spans="2:14" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="436"/>
+      <c r="B49" s="417"/>
       <c r="C49" s="194" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="474"/>
+      <c r="D49" s="495"/>
       <c r="E49" s="197"/>
       <c r="F49" s="197">
         <v>4</v>
@@ -13292,20 +13296,20 @@
       <c r="G49" s="197" t="s">
         <v>230</v>
       </c>
-      <c r="H49" s="423"/>
+      <c r="H49" s="450"/>
       <c r="I49" s="195"/>
-      <c r="J49" s="423"/>
-      <c r="K49" s="423"/>
-      <c r="L49" s="425"/>
+      <c r="J49" s="450"/>
+      <c r="K49" s="450"/>
+      <c r="L49" s="529"/>
       <c r="M49" s="243"/>
       <c r="N49" s="243"/>
     </row>
     <row r="50" spans="2:14" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="436"/>
+      <c r="B50" s="417"/>
       <c r="C50" s="229" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="474"/>
+      <c r="D50" s="495"/>
       <c r="E50" s="197"/>
       <c r="F50" s="197">
         <v>16</v>
@@ -13313,16 +13317,16 @@
       <c r="G50" s="197" t="s">
         <v>231</v>
       </c>
-      <c r="H50" s="423"/>
+      <c r="H50" s="450"/>
       <c r="I50" s="197"/>
-      <c r="J50" s="423"/>
-      <c r="K50" s="423"/>
-      <c r="L50" s="425"/>
+      <c r="J50" s="450"/>
+      <c r="K50" s="450"/>
+      <c r="L50" s="529"/>
       <c r="M50" s="243"/>
       <c r="N50" s="243"/>
     </row>
     <row r="51" spans="2:14" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="436"/>
+      <c r="B51" s="417"/>
       <c r="C51" s="248" t="s">
         <v>150</v>
       </c>
@@ -13351,7 +13355,7 @@
       <c r="N51" s="243"/>
     </row>
     <row r="52" spans="2:14" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="437"/>
+      <c r="B52" s="418"/>
       <c r="C52" s="252" t="s">
         <v>151</v>
       </c>
@@ -13380,7 +13384,7 @@
       <c r="N52" s="243"/>
     </row>
     <row r="53" spans="2:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="450" t="s">
+      <c r="B53" s="510" t="s">
         <v>249</v>
       </c>
       <c r="C53" s="236" t="s">
@@ -13396,7 +13400,7 @@
       <c r="G53" s="237">
         <v>500</v>
       </c>
-      <c r="H53" s="463" t="s">
+      <c r="H53" s="498" t="s">
         <v>102</v>
       </c>
       <c r="I53" s="237"/>
@@ -13409,194 +13413,194 @@
       <c r="N53" s="186"/>
     </row>
     <row r="54" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="451"/>
-      <c r="C54" s="475" t="s">
+      <c r="B54" s="511"/>
+      <c r="C54" s="530" t="s">
         <v>439</v>
       </c>
       <c r="D54" s="258" t="s">
         <v>442</v>
       </c>
-      <c r="E54" s="477"/>
-      <c r="F54" s="477">
+      <c r="E54" s="457"/>
+      <c r="F54" s="457">
         <v>2</v>
       </c>
-      <c r="G54" s="391" t="s">
+      <c r="G54" s="459" t="s">
         <v>440</v>
       </c>
-      <c r="H54" s="391"/>
-      <c r="I54" s="388" t="s">
+      <c r="H54" s="459"/>
+      <c r="I54" s="551" t="s">
         <v>220</v>
       </c>
-      <c r="J54" s="477" t="s">
+      <c r="J54" s="457" t="s">
         <v>220</v>
       </c>
-      <c r="K54" s="477" t="s">
+      <c r="K54" s="457" t="s">
         <v>496</v>
       </c>
-      <c r="L54" s="469"/>
+      <c r="L54" s="523"/>
       <c r="M54" s="186"/>
       <c r="N54" s="186"/>
     </row>
-    <row r="55" spans="2:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="B55" s="451"/>
-      <c r="C55" s="476"/>
+    <row r="55" spans="2:14" ht="60" x14ac:dyDescent="0.3">
+      <c r="B55" s="511"/>
+      <c r="C55" s="531"/>
       <c r="D55" s="259" t="s">
         <v>701</v>
       </c>
-      <c r="E55" s="401"/>
-      <c r="F55" s="401"/>
-      <c r="G55" s="391"/>
-      <c r="H55" s="391"/>
-      <c r="I55" s="389"/>
-      <c r="J55" s="401"/>
-      <c r="K55" s="401"/>
-      <c r="L55" s="408"/>
+      <c r="E55" s="434"/>
+      <c r="F55" s="434"/>
+      <c r="G55" s="459"/>
+      <c r="H55" s="459"/>
+      <c r="I55" s="552"/>
+      <c r="J55" s="434"/>
+      <c r="K55" s="434"/>
+      <c r="L55" s="524"/>
       <c r="M55" s="186"/>
       <c r="N55" s="186"/>
     </row>
     <row r="56" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="451"/>
-      <c r="C56" s="476"/>
+      <c r="B56" s="511"/>
+      <c r="C56" s="531"/>
       <c r="D56" s="259" t="s">
         <v>702</v>
       </c>
-      <c r="E56" s="401"/>
-      <c r="F56" s="401"/>
-      <c r="G56" s="391"/>
-      <c r="H56" s="391"/>
-      <c r="I56" s="389"/>
-      <c r="J56" s="401"/>
-      <c r="K56" s="401"/>
-      <c r="L56" s="408"/>
+      <c r="E56" s="434"/>
+      <c r="F56" s="434"/>
+      <c r="G56" s="459"/>
+      <c r="H56" s="459"/>
+      <c r="I56" s="552"/>
+      <c r="J56" s="434"/>
+      <c r="K56" s="434"/>
+      <c r="L56" s="524"/>
       <c r="M56" s="186"/>
       <c r="N56" s="186"/>
     </row>
-    <row r="57" spans="2:14" ht="24" x14ac:dyDescent="0.3">
-      <c r="B57" s="451"/>
-      <c r="C57" s="476"/>
+    <row r="57" spans="2:14" ht="48" x14ac:dyDescent="0.3">
+      <c r="B57" s="511"/>
+      <c r="C57" s="531"/>
       <c r="D57" s="259" t="s">
         <v>443</v>
       </c>
-      <c r="E57" s="401"/>
-      <c r="F57" s="401"/>
-      <c r="G57" s="391"/>
-      <c r="H57" s="391"/>
-      <c r="I57" s="389"/>
-      <c r="J57" s="401"/>
-      <c r="K57" s="401"/>
-      <c r="L57" s="408"/>
+      <c r="E57" s="434"/>
+      <c r="F57" s="434"/>
+      <c r="G57" s="459"/>
+      <c r="H57" s="459"/>
+      <c r="I57" s="552"/>
+      <c r="J57" s="434"/>
+      <c r="K57" s="434"/>
+      <c r="L57" s="524"/>
       <c r="M57" s="186"/>
       <c r="N57" s="186"/>
     </row>
     <row r="58" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="451"/>
-      <c r="C58" s="476"/>
+      <c r="B58" s="511"/>
+      <c r="C58" s="531"/>
       <c r="D58" s="221"/>
-      <c r="E58" s="401"/>
-      <c r="F58" s="401"/>
-      <c r="G58" s="477"/>
-      <c r="H58" s="391"/>
-      <c r="I58" s="389"/>
-      <c r="J58" s="401"/>
-      <c r="K58" s="401"/>
-      <c r="L58" s="408"/>
+      <c r="E58" s="434"/>
+      <c r="F58" s="434"/>
+      <c r="G58" s="457"/>
+      <c r="H58" s="459"/>
+      <c r="I58" s="552"/>
+      <c r="J58" s="434"/>
+      <c r="K58" s="434"/>
+      <c r="L58" s="524"/>
       <c r="M58" s="186"/>
       <c r="N58" s="186"/>
     </row>
     <row r="59" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="451"/>
-      <c r="C59" s="478" t="s">
+      <c r="B59" s="511"/>
+      <c r="C59" s="499" t="s">
         <v>218</v>
       </c>
       <c r="D59" s="258" t="s">
         <v>250</v>
       </c>
-      <c r="E59" s="390"/>
-      <c r="F59" s="390">
+      <c r="E59" s="458"/>
+      <c r="F59" s="458">
         <v>4</v>
       </c>
-      <c r="G59" s="390" t="s">
+      <c r="G59" s="458" t="s">
         <v>272</v>
       </c>
-      <c r="H59" s="391"/>
-      <c r="I59" s="393" t="s">
+      <c r="H59" s="459"/>
+      <c r="I59" s="553" t="s">
         <v>220</v>
       </c>
-      <c r="J59" s="390" t="s">
+      <c r="J59" s="458" t="s">
         <v>220</v>
       </c>
-      <c r="K59" s="390" t="s">
+      <c r="K59" s="458" t="s">
         <v>496</v>
       </c>
-      <c r="L59" s="470"/>
+      <c r="L59" s="525"/>
       <c r="M59" s="186"/>
       <c r="N59" s="186"/>
     </row>
     <row r="60" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="451"/>
-      <c r="C60" s="479"/>
+      <c r="B60" s="511"/>
+      <c r="C60" s="500"/>
       <c r="D60" s="221" t="s">
         <v>251</v>
       </c>
-      <c r="E60" s="391"/>
-      <c r="F60" s="391"/>
-      <c r="G60" s="391"/>
-      <c r="H60" s="391"/>
-      <c r="I60" s="394"/>
-      <c r="J60" s="391"/>
-      <c r="K60" s="391"/>
-      <c r="L60" s="471"/>
+      <c r="E60" s="459"/>
+      <c r="F60" s="459"/>
+      <c r="G60" s="459"/>
+      <c r="H60" s="459"/>
+      <c r="I60" s="554"/>
+      <c r="J60" s="459"/>
+      <c r="K60" s="459"/>
+      <c r="L60" s="526"/>
       <c r="M60" s="186"/>
       <c r="N60" s="186"/>
     </row>
     <row r="61" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="451"/>
-      <c r="C61" s="479"/>
+      <c r="B61" s="511"/>
+      <c r="C61" s="500"/>
       <c r="D61" s="221" t="s">
         <v>252</v>
       </c>
-      <c r="E61" s="391"/>
-      <c r="F61" s="391"/>
-      <c r="G61" s="391"/>
-      <c r="H61" s="391"/>
-      <c r="I61" s="394"/>
-      <c r="J61" s="391"/>
-      <c r="K61" s="391"/>
-      <c r="L61" s="471"/>
+      <c r="E61" s="459"/>
+      <c r="F61" s="459"/>
+      <c r="G61" s="459"/>
+      <c r="H61" s="459"/>
+      <c r="I61" s="554"/>
+      <c r="J61" s="459"/>
+      <c r="K61" s="459"/>
+      <c r="L61" s="526"/>
       <c r="M61" s="186"/>
       <c r="N61" s="186"/>
     </row>
     <row r="62" spans="2:14" ht="46.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="451"/>
-      <c r="C62" s="479"/>
+      <c r="B62" s="511"/>
+      <c r="C62" s="500"/>
       <c r="D62" s="259" t="s">
         <v>253</v>
       </c>
-      <c r="E62" s="391"/>
-      <c r="F62" s="391"/>
-      <c r="G62" s="391"/>
-      <c r="H62" s="391"/>
-      <c r="I62" s="394"/>
-      <c r="J62" s="391"/>
-      <c r="K62" s="391"/>
-      <c r="L62" s="471"/>
+      <c r="E62" s="459"/>
+      <c r="F62" s="459"/>
+      <c r="G62" s="459"/>
+      <c r="H62" s="459"/>
+      <c r="I62" s="554"/>
+      <c r="J62" s="459"/>
+      <c r="K62" s="459"/>
+      <c r="L62" s="526"/>
       <c r="M62" s="186"/>
       <c r="N62" s="186"/>
     </row>
     <row r="63" spans="2:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="452"/>
-      <c r="C63" s="480"/>
+      <c r="B63" s="512"/>
+      <c r="C63" s="501"/>
       <c r="D63" s="224" t="s">
         <v>441</v>
       </c>
-      <c r="E63" s="392"/>
-      <c r="F63" s="392"/>
-      <c r="G63" s="392"/>
-      <c r="H63" s="392"/>
-      <c r="I63" s="395"/>
-      <c r="J63" s="392"/>
-      <c r="K63" s="392"/>
-      <c r="L63" s="472"/>
+      <c r="E63" s="460"/>
+      <c r="F63" s="460"/>
+      <c r="G63" s="460"/>
+      <c r="H63" s="460"/>
+      <c r="I63" s="555"/>
+      <c r="J63" s="460"/>
+      <c r="K63" s="460"/>
+      <c r="L63" s="527"/>
       <c r="M63" s="186"/>
       <c r="N63" s="186"/>
     </row>
@@ -13625,17 +13629,17 @@
       <c r="D65" s="264" t="s">
         <v>89</v>
       </c>
-      <c r="E65" s="396" t="s">
+      <c r="E65" s="488" t="s">
         <v>445</v>
       </c>
-      <c r="F65" s="484"/>
+      <c r="F65" s="489"/>
       <c r="G65" s="265" t="s">
         <v>447</v>
       </c>
-      <c r="H65" s="396" t="s">
+      <c r="H65" s="488" t="s">
         <v>519</v>
       </c>
-      <c r="I65" s="396"/>
+      <c r="I65" s="488"/>
       <c r="J65" s="265" t="s">
         <v>535</v>
       </c>
@@ -13649,7 +13653,7 @@
       <c r="N65" s="186"/>
     </row>
     <row r="66" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="465" t="s">
+      <c r="B66" s="462" t="s">
         <v>258</v>
       </c>
       <c r="C66" s="267" t="s">
@@ -13658,17 +13662,17 @@
       <c r="D66" s="191" t="s">
         <v>444</v>
       </c>
-      <c r="E66" s="426" t="s">
+      <c r="E66" s="439" t="s">
         <v>446</v>
       </c>
-      <c r="F66" s="426"/>
+      <c r="F66" s="439"/>
       <c r="G66" s="192" t="s">
         <v>449</v>
       </c>
-      <c r="H66" s="397" t="s">
+      <c r="H66" s="556" t="s">
         <v>448</v>
       </c>
-      <c r="I66" s="397"/>
+      <c r="I66" s="556"/>
       <c r="J66" s="192"/>
       <c r="K66" s="192" t="s">
         <v>496</v>
@@ -13678,24 +13682,24 @@
       <c r="N66" s="186"/>
     </row>
     <row r="67" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="466"/>
+      <c r="B67" s="463"/>
       <c r="C67" s="268" t="s">
         <v>155</v>
       </c>
       <c r="D67" s="206" t="s">
         <v>256</v>
       </c>
-      <c r="E67" s="400">
+      <c r="E67" s="440">
         <v>8</v>
       </c>
-      <c r="F67" s="400"/>
-      <c r="G67" s="506" t="s">
+      <c r="F67" s="440"/>
+      <c r="G67" s="472" t="s">
         <v>450</v>
       </c>
-      <c r="H67" s="398" t="s">
+      <c r="H67" s="402" t="s">
         <v>156</v>
       </c>
-      <c r="I67" s="399"/>
+      <c r="I67" s="403"/>
       <c r="J67" s="195" t="s">
         <v>157</v>
       </c>
@@ -13707,22 +13711,22 @@
       <c r="N67" s="186"/>
     </row>
     <row r="68" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="466"/>
+      <c r="B68" s="463"/>
       <c r="C68" s="268" t="s">
         <v>158</v>
       </c>
       <c r="D68" s="206" t="s">
         <v>255</v>
       </c>
-      <c r="E68" s="400">
+      <c r="E68" s="440">
         <v>4</v>
       </c>
-      <c r="F68" s="400"/>
-      <c r="G68" s="423"/>
-      <c r="H68" s="398" t="s">
+      <c r="F68" s="440"/>
+      <c r="G68" s="450"/>
+      <c r="H68" s="402" t="s">
         <v>159</v>
       </c>
-      <c r="I68" s="399"/>
+      <c r="I68" s="403"/>
       <c r="J68" s="195" t="s">
         <v>160</v>
       </c>
@@ -13734,22 +13738,22 @@
       <c r="N68" s="186"/>
     </row>
     <row r="69" spans="2:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="467"/>
+      <c r="B69" s="464"/>
       <c r="C69" s="269" t="s">
         <v>161</v>
       </c>
       <c r="D69" s="270" t="s">
         <v>256</v>
       </c>
-      <c r="E69" s="422">
+      <c r="E69" s="449">
         <v>32</v>
       </c>
-      <c r="F69" s="422"/>
-      <c r="G69" s="430"/>
-      <c r="H69" s="485" t="s">
+      <c r="F69" s="449"/>
+      <c r="G69" s="473"/>
+      <c r="H69" s="479" t="s">
         <v>656</v>
       </c>
-      <c r="I69" s="486"/>
+      <c r="I69" s="480"/>
       <c r="J69" s="271" t="s">
         <v>162</v>
       </c>
@@ -13761,7 +13765,7 @@
       <c r="N69" s="186"/>
     </row>
     <row r="70" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="456" t="s">
+      <c r="B70" s="465" t="s">
         <v>257</v>
       </c>
       <c r="C70" s="273" t="s">
@@ -13770,17 +13774,17 @@
       <c r="D70" s="274" t="s">
         <v>457</v>
       </c>
-      <c r="E70" s="481" t="s">
+      <c r="E70" s="487" t="s">
         <v>259</v>
       </c>
-      <c r="F70" s="481"/>
+      <c r="F70" s="487"/>
       <c r="G70" s="237" t="s">
         <v>453</v>
       </c>
-      <c r="H70" s="487" t="s">
+      <c r="H70" s="485" t="s">
         <v>164</v>
       </c>
-      <c r="I70" s="488"/>
+      <c r="I70" s="486"/>
       <c r="J70" s="237" t="s">
         <v>165</v>
       </c>
@@ -13792,24 +13796,24 @@
       <c r="N70" s="186"/>
     </row>
     <row r="71" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="457"/>
+      <c r="B71" s="466"/>
       <c r="C71" s="275" t="s">
         <v>166</v>
       </c>
       <c r="D71" s="221" t="s">
         <v>456</v>
       </c>
-      <c r="E71" s="401">
+      <c r="E71" s="434">
         <v>8</v>
       </c>
-      <c r="F71" s="401"/>
+      <c r="F71" s="434"/>
       <c r="G71" s="222" t="s">
         <v>451</v>
       </c>
-      <c r="H71" s="489" t="s">
+      <c r="H71" s="490" t="s">
         <v>657</v>
       </c>
-      <c r="I71" s="490"/>
+      <c r="I71" s="491"/>
       <c r="J71" s="276"/>
       <c r="K71" s="276" t="s">
         <v>496</v>
@@ -13819,24 +13823,24 @@
       <c r="N71" s="186"/>
     </row>
     <row r="72" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="457"/>
+      <c r="B72" s="466"/>
       <c r="C72" s="275" t="s">
         <v>167</v>
       </c>
       <c r="D72" s="221" t="s">
         <v>456</v>
       </c>
-      <c r="E72" s="401">
+      <c r="E72" s="434">
         <v>8</v>
       </c>
-      <c r="F72" s="401"/>
+      <c r="F72" s="434"/>
       <c r="G72" s="222" t="s">
         <v>452</v>
       </c>
-      <c r="H72" s="491" t="s">
+      <c r="H72" s="435" t="s">
         <v>260</v>
       </c>
-      <c r="I72" s="492"/>
+      <c r="I72" s="436"/>
       <c r="J72" s="222" t="s">
         <v>168</v>
       </c>
@@ -13848,24 +13852,24 @@
       <c r="N72" s="186"/>
     </row>
     <row r="73" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="457"/>
+      <c r="B73" s="466"/>
       <c r="C73" s="278" t="s">
         <v>169</v>
       </c>
       <c r="D73" s="221" t="s">
         <v>444</v>
       </c>
-      <c r="E73" s="401">
+      <c r="E73" s="434">
         <v>8</v>
       </c>
-      <c r="F73" s="401"/>
+      <c r="F73" s="434"/>
       <c r="G73" s="222" t="s">
         <v>451</v>
       </c>
-      <c r="H73" s="489" t="s">
+      <c r="H73" s="490" t="s">
         <v>176</v>
       </c>
-      <c r="I73" s="490"/>
+      <c r="I73" s="491"/>
       <c r="J73" s="222" t="s">
         <v>153</v>
       </c>
@@ -13877,24 +13881,24 @@
       <c r="N73" s="186"/>
     </row>
     <row r="74" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="457"/>
+      <c r="B74" s="466"/>
       <c r="C74" s="278" t="s">
         <v>170</v>
       </c>
       <c r="D74" s="221" t="s">
         <v>444</v>
       </c>
-      <c r="E74" s="401">
+      <c r="E74" s="434">
         <v>32</v>
       </c>
-      <c r="F74" s="401"/>
+      <c r="F74" s="434"/>
       <c r="G74" s="222" t="s">
         <v>451</v>
       </c>
-      <c r="H74" s="489" t="s">
+      <c r="H74" s="490" t="s">
         <v>658</v>
       </c>
-      <c r="I74" s="490"/>
+      <c r="I74" s="491"/>
       <c r="J74" s="222" t="s">
         <v>162</v>
       </c>
@@ -13906,24 +13910,24 @@
       <c r="N74" s="186"/>
     </row>
     <row r="75" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="457"/>
+      <c r="B75" s="466"/>
       <c r="C75" s="278" t="s">
         <v>171</v>
       </c>
       <c r="D75" s="221" t="s">
         <v>254</v>
       </c>
-      <c r="E75" s="401">
+      <c r="E75" s="434">
         <v>32</v>
       </c>
-      <c r="F75" s="401"/>
+      <c r="F75" s="434"/>
       <c r="G75" s="222" t="s">
         <v>454</v>
       </c>
-      <c r="H75" s="489" t="s">
+      <c r="H75" s="490" t="s">
         <v>658</v>
       </c>
-      <c r="I75" s="490"/>
+      <c r="I75" s="491"/>
       <c r="J75" s="222" t="s">
         <v>162</v>
       </c>
@@ -13935,24 +13939,24 @@
       <c r="N75" s="186"/>
     </row>
     <row r="76" spans="2:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="B76" s="457"/>
+      <c r="B76" s="466"/>
       <c r="C76" s="278" t="s">
         <v>172</v>
       </c>
       <c r="D76" s="259" t="s">
         <v>703</v>
       </c>
-      <c r="E76" s="401">
+      <c r="E76" s="434">
         <v>4</v>
       </c>
-      <c r="F76" s="401"/>
+      <c r="F76" s="434"/>
       <c r="G76" s="222" t="s">
         <v>452</v>
       </c>
-      <c r="H76" s="491" t="s">
+      <c r="H76" s="435" t="s">
         <v>173</v>
       </c>
-      <c r="I76" s="492"/>
+      <c r="I76" s="436"/>
       <c r="J76" s="222" t="s">
         <v>174</v>
       </c>
@@ -13964,24 +13968,24 @@
       <c r="N76" s="186"/>
     </row>
     <row r="77" spans="2:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="458"/>
+      <c r="B77" s="467"/>
       <c r="C77" s="279" t="s">
         <v>175</v>
       </c>
       <c r="D77" s="224" t="s">
         <v>534</v>
       </c>
-      <c r="E77" s="411">
+      <c r="E77" s="438">
         <v>8</v>
       </c>
-      <c r="F77" s="411"/>
+      <c r="F77" s="438"/>
       <c r="G77" s="225" t="s">
         <v>455</v>
       </c>
-      <c r="H77" s="493" t="s">
+      <c r="H77" s="492" t="s">
         <v>176</v>
       </c>
-      <c r="I77" s="494"/>
+      <c r="I77" s="493"/>
       <c r="J77" s="225" t="s">
         <v>153</v>
       </c>
@@ -13993,7 +13997,7 @@
       <c r="N77" s="186"/>
     </row>
     <row r="78" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="504" t="s">
+      <c r="B78" s="468" t="s">
         <v>261</v>
       </c>
       <c r="C78" s="280" t="s">
@@ -14002,17 +14006,17 @@
       <c r="D78" s="247" t="s">
         <v>456</v>
       </c>
-      <c r="E78" s="499">
+      <c r="E78" s="478">
         <v>8</v>
       </c>
-      <c r="F78" s="499"/>
+      <c r="F78" s="478"/>
       <c r="G78" s="281" t="s">
         <v>458</v>
       </c>
-      <c r="H78" s="495" t="s">
+      <c r="H78" s="476" t="s">
         <v>657</v>
       </c>
-      <c r="I78" s="496"/>
+      <c r="I78" s="477"/>
       <c r="J78" s="226" t="s">
         <v>178</v>
       </c>
@@ -14024,24 +14028,24 @@
       <c r="N78" s="186"/>
     </row>
     <row r="79" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="466"/>
+      <c r="B79" s="463"/>
       <c r="C79" s="268" t="s">
         <v>179</v>
       </c>
       <c r="D79" s="206" t="s">
         <v>456</v>
       </c>
-      <c r="E79" s="400">
+      <c r="E79" s="440">
         <v>8</v>
       </c>
-      <c r="F79" s="400"/>
+      <c r="F79" s="440"/>
       <c r="G79" s="282" t="s">
         <v>458</v>
       </c>
-      <c r="H79" s="398" t="s">
+      <c r="H79" s="402" t="s">
         <v>176</v>
       </c>
-      <c r="I79" s="399"/>
+      <c r="I79" s="403"/>
       <c r="J79" s="195" t="s">
         <v>153</v>
       </c>
@@ -14053,24 +14057,24 @@
       <c r="N79" s="186"/>
     </row>
     <row r="80" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="466"/>
+      <c r="B80" s="463"/>
       <c r="C80" s="268" t="s">
         <v>180</v>
       </c>
       <c r="D80" s="206" t="s">
         <v>459</v>
       </c>
-      <c r="E80" s="400">
+      <c r="E80" s="440">
         <v>8</v>
       </c>
-      <c r="F80" s="400"/>
+      <c r="F80" s="440"/>
       <c r="G80" s="282" t="s">
         <v>458</v>
       </c>
-      <c r="H80" s="398" t="s">
+      <c r="H80" s="402" t="s">
         <v>176</v>
       </c>
-      <c r="I80" s="399"/>
+      <c r="I80" s="403"/>
       <c r="J80" s="195" t="s">
         <v>153</v>
       </c>
@@ -14082,24 +14086,24 @@
       <c r="N80" s="186"/>
     </row>
     <row r="81" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="466"/>
+      <c r="B81" s="463"/>
       <c r="C81" s="268" t="s">
         <v>181</v>
       </c>
       <c r="D81" s="206" t="s">
         <v>456</v>
       </c>
-      <c r="E81" s="400">
+      <c r="E81" s="440">
         <v>32</v>
       </c>
-      <c r="F81" s="400"/>
+      <c r="F81" s="440"/>
       <c r="G81" s="282" t="s">
         <v>458</v>
       </c>
-      <c r="H81" s="398" t="s">
+      <c r="H81" s="402" t="s">
         <v>659</v>
       </c>
-      <c r="I81" s="399"/>
+      <c r="I81" s="403"/>
       <c r="J81" s="195" t="s">
         <v>182</v>
       </c>
@@ -14111,24 +14115,24 @@
       <c r="N81" s="186"/>
     </row>
     <row r="82" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="466"/>
+      <c r="B82" s="463"/>
       <c r="C82" s="268" t="s">
         <v>183</v>
       </c>
       <c r="D82" s="206" t="s">
         <v>459</v>
       </c>
-      <c r="E82" s="400">
+      <c r="E82" s="440">
         <v>32</v>
       </c>
-      <c r="F82" s="400"/>
+      <c r="F82" s="440"/>
       <c r="G82" s="282" t="s">
         <v>460</v>
       </c>
-      <c r="H82" s="398" t="s">
+      <c r="H82" s="402" t="s">
         <v>660</v>
       </c>
-      <c r="I82" s="399"/>
+      <c r="I82" s="403"/>
       <c r="J82" s="195" t="s">
         <v>184</v>
       </c>
@@ -14140,24 +14144,24 @@
       <c r="N82" s="186"/>
     </row>
     <row r="83" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="505"/>
+      <c r="B83" s="469"/>
       <c r="C83" s="283" t="s">
         <v>185</v>
       </c>
       <c r="D83" s="209" t="s">
         <v>461</v>
       </c>
-      <c r="E83" s="483">
+      <c r="E83" s="441">
         <v>16</v>
       </c>
-      <c r="F83" s="483"/>
+      <c r="F83" s="441"/>
       <c r="G83" s="284" t="s">
         <v>460</v>
       </c>
-      <c r="H83" s="485" t="s">
+      <c r="H83" s="479" t="s">
         <v>462</v>
       </c>
-      <c r="I83" s="486"/>
+      <c r="I83" s="480"/>
       <c r="J83" s="210" t="s">
         <v>186</v>
       </c>
@@ -14169,7 +14173,7 @@
       <c r="N83" s="186"/>
     </row>
     <row r="84" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B84" s="441" t="s">
+      <c r="B84" s="470" t="s">
         <v>262</v>
       </c>
       <c r="C84" s="285" t="s">
@@ -14178,17 +14182,17 @@
       <c r="D84" s="286" t="s">
         <v>263</v>
       </c>
-      <c r="E84" s="477">
+      <c r="E84" s="457">
         <v>4</v>
       </c>
-      <c r="F84" s="477"/>
+      <c r="F84" s="457"/>
       <c r="G84" s="212" t="s">
         <v>497</v>
       </c>
-      <c r="H84" s="500" t="s">
+      <c r="H84" s="481" t="s">
         <v>187</v>
       </c>
-      <c r="I84" s="501"/>
+      <c r="I84" s="482"/>
       <c r="J84" s="212" t="s">
         <v>497</v>
       </c>
@@ -14200,24 +14204,24 @@
       <c r="N84" s="186"/>
     </row>
     <row r="85" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="449"/>
+      <c r="B85" s="471"/>
       <c r="C85" s="279" t="s">
         <v>189</v>
       </c>
       <c r="D85" s="224" t="s">
         <v>265</v>
       </c>
-      <c r="E85" s="411">
+      <c r="E85" s="438">
         <v>8</v>
       </c>
-      <c r="F85" s="411"/>
+      <c r="F85" s="438"/>
       <c r="G85" s="225" t="s">
         <v>497</v>
       </c>
-      <c r="H85" s="502" t="s">
+      <c r="H85" s="483" t="s">
         <v>190</v>
       </c>
-      <c r="I85" s="503"/>
+      <c r="I85" s="484"/>
       <c r="J85" s="225" t="s">
         <v>497</v>
       </c>
@@ -14238,17 +14242,17 @@
       <c r="D86" s="289" t="s">
         <v>522</v>
       </c>
-      <c r="E86" s="525">
+      <c r="E86" s="429">
         <v>4</v>
       </c>
-      <c r="F86" s="525"/>
+      <c r="F86" s="429"/>
       <c r="G86" s="290" t="s">
         <v>497</v>
       </c>
-      <c r="H86" s="526" t="s">
+      <c r="H86" s="430" t="s">
         <v>520</v>
       </c>
-      <c r="I86" s="527"/>
+      <c r="I86" s="431"/>
       <c r="J86" s="290" t="s">
         <v>497</v>
       </c>
@@ -14269,17 +14273,17 @@
       <c r="D87" s="294" t="s">
         <v>522</v>
       </c>
-      <c r="E87" s="509">
+      <c r="E87" s="444">
         <v>4</v>
       </c>
-      <c r="F87" s="509"/>
+      <c r="F87" s="444"/>
       <c r="G87" s="295" t="s">
         <v>497</v>
       </c>
-      <c r="H87" s="510" t="s">
+      <c r="H87" s="445" t="s">
         <v>521</v>
       </c>
-      <c r="I87" s="511"/>
+      <c r="I87" s="446"/>
       <c r="J87" s="295" t="s">
         <v>497</v>
       </c>
@@ -14300,17 +14304,17 @@
       <c r="D88" s="238" t="s">
         <v>704</v>
       </c>
-      <c r="E88" s="481">
+      <c r="E88" s="487">
         <v>2</v>
       </c>
-      <c r="F88" s="481"/>
+      <c r="F88" s="487"/>
       <c r="G88" s="237" t="s">
         <v>497</v>
       </c>
-      <c r="H88" s="487" t="s">
+      <c r="H88" s="485" t="s">
         <v>192</v>
       </c>
-      <c r="I88" s="488"/>
+      <c r="I88" s="486"/>
       <c r="J88" s="237" t="s">
         <v>497</v>
       </c>
@@ -14324,7 +14328,7 @@
       <c r="N88" s="186"/>
     </row>
     <row r="89" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B89" s="528" t="s">
+      <c r="B89" s="432" t="s">
         <v>499</v>
       </c>
       <c r="C89" s="278" t="s">
@@ -14333,17 +14337,17 @@
       <c r="D89" s="239" t="s">
         <v>510</v>
       </c>
-      <c r="E89" s="401">
+      <c r="E89" s="434">
         <v>1</v>
       </c>
-      <c r="F89" s="401"/>
+      <c r="F89" s="434"/>
       <c r="G89" s="222" t="s">
         <v>497</v>
       </c>
-      <c r="H89" s="491" t="s">
+      <c r="H89" s="435" t="s">
         <v>191</v>
       </c>
-      <c r="I89" s="492"/>
+      <c r="I89" s="436"/>
       <c r="J89" s="222" t="s">
         <v>497</v>
       </c>
@@ -14357,24 +14361,24 @@
       <c r="N89" s="186"/>
     </row>
     <row r="90" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B90" s="529"/>
+      <c r="B90" s="433"/>
       <c r="C90" s="278" t="s">
         <v>194</v>
       </c>
       <c r="D90" s="239" t="s">
         <v>511</v>
       </c>
-      <c r="E90" s="401">
+      <c r="E90" s="434">
         <v>1</v>
       </c>
-      <c r="F90" s="401"/>
+      <c r="F90" s="434"/>
       <c r="G90" s="222" t="s">
         <v>497</v>
       </c>
-      <c r="H90" s="491" t="s">
+      <c r="H90" s="435" t="s">
         <v>195</v>
       </c>
-      <c r="I90" s="492"/>
+      <c r="I90" s="436"/>
       <c r="J90" s="222" t="s">
         <v>497</v>
       </c>
@@ -14395,17 +14399,17 @@
         <v>529</v>
       </c>
       <c r="D91" s="300"/>
-      <c r="E91" s="401">
+      <c r="E91" s="434">
         <v>1</v>
       </c>
-      <c r="F91" s="401"/>
+      <c r="F91" s="434"/>
       <c r="G91" s="215" t="s">
         <v>497</v>
       </c>
-      <c r="H91" s="491" t="s">
+      <c r="H91" s="435" t="s">
         <v>501</v>
       </c>
-      <c r="I91" s="492"/>
+      <c r="I91" s="436"/>
       <c r="J91" s="215" t="s">
         <v>497</v>
       </c>
@@ -14424,17 +14428,17 @@
         <v>504</v>
       </c>
       <c r="D92" s="300"/>
-      <c r="E92" s="401">
+      <c r="E92" s="434">
         <v>1</v>
       </c>
-      <c r="F92" s="401"/>
+      <c r="F92" s="434"/>
       <c r="G92" s="215" t="s">
         <v>497</v>
       </c>
-      <c r="H92" s="491" t="s">
+      <c r="H92" s="435" t="s">
         <v>195</v>
       </c>
-      <c r="I92" s="492"/>
+      <c r="I92" s="436"/>
       <c r="J92" s="215" t="s">
         <v>497</v>
       </c>
@@ -14446,7 +14450,7 @@
       <c r="N92" s="186"/>
     </row>
     <row r="93" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B93" s="528" t="s">
+      <c r="B93" s="432" t="s">
         <v>503</v>
       </c>
       <c r="C93" s="299" t="s">
@@ -14455,17 +14459,17 @@
       <c r="D93" s="216" t="s">
         <v>508</v>
       </c>
-      <c r="E93" s="401">
+      <c r="E93" s="434">
         <v>1</v>
       </c>
-      <c r="F93" s="401"/>
+      <c r="F93" s="434"/>
       <c r="G93" s="215" t="s">
         <v>497</v>
       </c>
-      <c r="H93" s="491" t="s">
+      <c r="H93" s="435" t="s">
         <v>507</v>
       </c>
-      <c r="I93" s="492"/>
+      <c r="I93" s="436"/>
       <c r="J93" s="215" t="s">
         <v>497</v>
       </c>
@@ -14479,24 +14483,24 @@
       <c r="N93" s="186"/>
     </row>
     <row r="94" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="530"/>
+      <c r="B94" s="437"/>
       <c r="C94" s="279" t="s">
         <v>506</v>
       </c>
       <c r="D94" s="240" t="s">
         <v>509</v>
       </c>
-      <c r="E94" s="411">
+      <c r="E94" s="438">
         <v>1</v>
       </c>
-      <c r="F94" s="411"/>
+      <c r="F94" s="438"/>
       <c r="G94" s="225" t="s">
         <v>497</v>
       </c>
-      <c r="H94" s="491" t="s">
+      <c r="H94" s="435" t="s">
         <v>507</v>
       </c>
-      <c r="I94" s="492"/>
+      <c r="I94" s="436"/>
       <c r="J94" s="225" t="s">
         <v>497</v>
       </c>
@@ -14510,7 +14514,7 @@
       <c r="N94" s="186"/>
     </row>
     <row r="95" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B95" s="436" t="s">
+      <c r="B95" s="417" t="s">
         <v>270</v>
       </c>
       <c r="C95" s="267" t="s">
@@ -14519,17 +14523,17 @@
       <c r="D95" s="242" t="s">
         <v>523</v>
       </c>
-      <c r="E95" s="426">
+      <c r="E95" s="439">
         <v>3</v>
       </c>
-      <c r="F95" s="426"/>
+      <c r="F95" s="439"/>
       <c r="G95" s="192" t="s">
         <v>497</v>
       </c>
-      <c r="H95" s="495" t="s">
+      <c r="H95" s="476" t="s">
         <v>497</v>
       </c>
-      <c r="I95" s="496"/>
+      <c r="I95" s="477"/>
       <c r="J95" s="192" t="s">
         <v>497</v>
       </c>
@@ -14543,24 +14547,24 @@
       <c r="N95" s="186"/>
     </row>
     <row r="96" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B96" s="436"/>
+      <c r="B96" s="417"/>
       <c r="C96" s="267" t="s">
         <v>463</v>
       </c>
       <c r="D96" s="242" t="s">
         <v>524</v>
       </c>
-      <c r="E96" s="398">
+      <c r="E96" s="402">
         <v>1</v>
       </c>
-      <c r="F96" s="399"/>
+      <c r="F96" s="403"/>
       <c r="G96" s="192" t="s">
         <v>497</v>
       </c>
-      <c r="H96" s="398" t="s">
+      <c r="H96" s="402" t="s">
         <v>497</v>
       </c>
-      <c r="I96" s="399"/>
+      <c r="I96" s="403"/>
       <c r="J96" s="192" t="s">
         <v>497</v>
       </c>
@@ -14574,24 +14578,24 @@
       <c r="N96" s="186"/>
     </row>
     <row r="97" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B97" s="436"/>
+      <c r="B97" s="417"/>
       <c r="C97" s="268" t="s">
         <v>271</v>
       </c>
       <c r="D97" s="207" t="s">
         <v>525</v>
       </c>
-      <c r="E97" s="400">
+      <c r="E97" s="440">
         <v>4</v>
       </c>
-      <c r="F97" s="400"/>
+      <c r="F97" s="440"/>
       <c r="G97" s="195" t="s">
         <v>497</v>
       </c>
-      <c r="H97" s="398" t="s">
+      <c r="H97" s="402" t="s">
         <v>497</v>
       </c>
-      <c r="I97" s="399"/>
+      <c r="I97" s="403"/>
       <c r="J97" s="195" t="s">
         <v>497</v>
       </c>
@@ -14605,24 +14609,24 @@
       <c r="N97" s="186"/>
     </row>
     <row r="98" spans="2:14" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="437"/>
+      <c r="B98" s="418"/>
       <c r="C98" s="302" t="s">
         <v>528</v>
       </c>
       <c r="D98" s="272" t="s">
         <v>526</v>
       </c>
-      <c r="E98" s="483">
+      <c r="E98" s="441">
         <v>8</v>
       </c>
-      <c r="F98" s="483"/>
+      <c r="F98" s="441"/>
       <c r="G98" s="210" t="s">
         <v>497</v>
       </c>
-      <c r="H98" s="497" t="s">
+      <c r="H98" s="474" t="s">
         <v>176</v>
       </c>
-      <c r="I98" s="498"/>
+      <c r="I98" s="475"/>
       <c r="J98" s="271" t="s">
         <v>153</v>
       </c>
@@ -14635,7 +14639,7 @@
       <c r="M98" s="186"/>
       <c r="N98" s="186"/>
     </row>
-    <row r="99" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -14650,410 +14654,418 @@
       <c r="M99" s="186"/>
       <c r="N99" s="186"/>
     </row>
-    <row r="100" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B100" s="521" t="s">
-        <v>0</v>
-      </c>
-      <c r="C100" s="402" t="s">
-        <v>88</v>
-      </c>
-      <c r="D100" s="523" t="s">
-        <v>468</v>
-      </c>
-      <c r="E100" s="531" t="s">
-        <v>484</v>
-      </c>
-      <c r="F100" s="532"/>
-      <c r="G100" s="303" t="s">
-        <v>467</v>
-      </c>
-      <c r="H100" s="531" t="s">
-        <v>471</v>
-      </c>
-      <c r="I100" s="532"/>
-      <c r="J100" s="433" t="s">
-        <v>472</v>
-      </c>
-      <c r="K100" s="433" t="s">
-        <v>489</v>
-      </c>
-      <c r="L100" s="507" t="s">
-        <v>480</v>
-      </c>
+    <row r="100" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="62" t="s">
+        <v>710</v>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="186"/>
+      <c r="L100" s="186"/>
       <c r="M100" s="186"/>
       <c r="N100" s="186"/>
     </row>
-    <row r="101" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="522"/>
-      <c r="C101" s="403"/>
-      <c r="D101" s="524"/>
-      <c r="E101" s="533"/>
-      <c r="F101" s="534"/>
-      <c r="G101" s="189" t="s">
-        <v>469</v>
-      </c>
-      <c r="H101" s="533"/>
-      <c r="I101" s="534"/>
-      <c r="J101" s="434"/>
-      <c r="K101" s="434"/>
-      <c r="L101" s="508"/>
+    <row r="101" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B101" s="423" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" s="425" t="s">
+        <v>88</v>
+      </c>
+      <c r="D101" s="427" t="s">
+        <v>468</v>
+      </c>
+      <c r="E101" s="408" t="s">
+        <v>484</v>
+      </c>
+      <c r="F101" s="409"/>
+      <c r="G101" s="303" t="s">
+        <v>467</v>
+      </c>
+      <c r="H101" s="408" t="s">
+        <v>471</v>
+      </c>
+      <c r="I101" s="409"/>
+      <c r="J101" s="447" t="s">
+        <v>472</v>
+      </c>
+      <c r="K101" s="447" t="s">
+        <v>489</v>
+      </c>
+      <c r="L101" s="442" t="s">
+        <v>480</v>
+      </c>
       <c r="M101" s="186"/>
       <c r="N101" s="186"/>
     </row>
-    <row r="102" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B102" s="435" t="s">
-        <v>512</v>
-      </c>
-      <c r="C102" s="227" t="s">
-        <v>464</v>
-      </c>
-      <c r="D102" s="613" t="s">
-        <v>705</v>
-      </c>
-      <c r="E102" s="541" t="s">
-        <v>488</v>
-      </c>
-      <c r="F102" s="542"/>
-      <c r="G102" s="192" t="s">
-        <v>470</v>
-      </c>
-      <c r="H102" s="535" t="s">
-        <v>474</v>
-      </c>
-      <c r="I102" s="536"/>
-      <c r="J102" s="192" t="s">
-        <v>473</v>
-      </c>
-      <c r="K102" s="192" t="s">
-        <v>490</v>
-      </c>
-      <c r="L102" s="305"/>
+    <row r="102" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="424"/>
+      <c r="C102" s="426"/>
+      <c r="D102" s="428"/>
+      <c r="E102" s="410"/>
+      <c r="F102" s="411"/>
+      <c r="G102" s="189" t="s">
+        <v>469</v>
+      </c>
+      <c r="H102" s="410"/>
+      <c r="I102" s="411"/>
+      <c r="J102" s="448"/>
+      <c r="K102" s="448"/>
+      <c r="L102" s="443"/>
       <c r="M102" s="186"/>
       <c r="N102" s="186"/>
     </row>
     <row r="103" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B103" s="436"/>
-      <c r="C103" s="194" t="s">
-        <v>465</v>
-      </c>
-      <c r="D103" s="613" t="s">
-        <v>706</v>
-      </c>
-      <c r="E103" s="541" t="s">
+      <c r="B103" s="416" t="s">
+        <v>512</v>
+      </c>
+      <c r="C103" s="227" t="s">
+        <v>464</v>
+      </c>
+      <c r="D103" s="352" t="s">
+        <v>705</v>
+      </c>
+      <c r="E103" s="412" t="s">
         <v>488</v>
       </c>
-      <c r="F103" s="542"/>
-      <c r="G103" s="195" t="s">
+      <c r="F103" s="413"/>
+      <c r="G103" s="192" t="s">
         <v>470</v>
       </c>
-      <c r="H103" s="398" t="s">
-        <v>475</v>
-      </c>
-      <c r="I103" s="399"/>
-      <c r="J103" s="195" t="s">
-        <v>220</v>
-      </c>
-      <c r="K103" s="195" t="s">
+      <c r="H103" s="400" t="s">
+        <v>474</v>
+      </c>
+      <c r="I103" s="401"/>
+      <c r="J103" s="192" t="s">
+        <v>473</v>
+      </c>
+      <c r="K103" s="192" t="s">
         <v>490</v>
       </c>
-      <c r="L103" s="307" t="s">
-        <v>491</v>
-      </c>
+      <c r="L103" s="305"/>
       <c r="M103" s="186"/>
       <c r="N103" s="186"/>
     </row>
     <row r="104" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B104" s="436"/>
+      <c r="B104" s="417"/>
       <c r="C104" s="194" t="s">
-        <v>466</v>
-      </c>
-      <c r="D104" s="613" t="s">
-        <v>707</v>
-      </c>
-      <c r="E104" s="541" t="s">
+        <v>465</v>
+      </c>
+      <c r="D104" s="352" t="s">
+        <v>706</v>
+      </c>
+      <c r="E104" s="412" t="s">
         <v>488</v>
       </c>
-      <c r="F104" s="542"/>
+      <c r="F104" s="413"/>
       <c r="G104" s="195" t="s">
-        <v>476</v>
-      </c>
-      <c r="H104" s="398" t="s">
-        <v>477</v>
-      </c>
-      <c r="I104" s="399"/>
+        <v>470</v>
+      </c>
+      <c r="H104" s="402" t="s">
+        <v>475</v>
+      </c>
+      <c r="I104" s="403"/>
       <c r="J104" s="195" t="s">
-        <v>473</v>
+        <v>220</v>
       </c>
       <c r="K104" s="195" t="s">
         <v>490</v>
       </c>
-      <c r="L104" s="308"/>
+      <c r="L104" s="307" t="s">
+        <v>491</v>
+      </c>
       <c r="M104" s="186"/>
       <c r="N104" s="186"/>
     </row>
     <row r="105" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B105" s="436"/>
-      <c r="C105" s="227" t="s">
-        <v>481</v>
-      </c>
-      <c r="D105" s="304" t="s">
-        <v>487</v>
-      </c>
-      <c r="E105" s="541">
-        <v>1</v>
-      </c>
-      <c r="F105" s="542"/>
-      <c r="G105" s="192" t="s">
-        <v>486</v>
-      </c>
-      <c r="H105" s="398" t="s">
-        <v>485</v>
-      </c>
-      <c r="I105" s="399"/>
-      <c r="J105" s="192" t="s">
-        <v>492</v>
-      </c>
-      <c r="K105" s="309" t="s">
+      <c r="B105" s="417"/>
+      <c r="C105" s="194" t="s">
+        <v>466</v>
+      </c>
+      <c r="D105" s="352" t="s">
+        <v>707</v>
+      </c>
+      <c r="E105" s="412" t="s">
+        <v>488</v>
+      </c>
+      <c r="F105" s="413"/>
+      <c r="G105" s="195" t="s">
+        <v>476</v>
+      </c>
+      <c r="H105" s="402" t="s">
+        <v>477</v>
+      </c>
+      <c r="I105" s="403"/>
+      <c r="J105" s="195" t="s">
+        <v>473</v>
+      </c>
+      <c r="K105" s="195" t="s">
         <v>490</v>
       </c>
-      <c r="L105" s="305"/>
+      <c r="L105" s="308"/>
       <c r="M105" s="186"/>
       <c r="N105" s="186"/>
     </row>
-    <row r="106" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="436"/>
-      <c r="C106" s="194" t="s">
-        <v>482</v>
-      </c>
-      <c r="D106" s="306" t="s">
+    <row r="106" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B106" s="417"/>
+      <c r="C106" s="227" t="s">
+        <v>481</v>
+      </c>
+      <c r="D106" s="304" t="s">
         <v>487</v>
       </c>
-      <c r="E106" s="541">
+      <c r="E106" s="412">
         <v>1</v>
       </c>
-      <c r="F106" s="542"/>
-      <c r="G106" s="195" t="s">
+      <c r="F106" s="413"/>
+      <c r="G106" s="192" t="s">
         <v>486</v>
       </c>
-      <c r="H106" s="537" t="s">
-        <v>514</v>
-      </c>
-      <c r="I106" s="538"/>
-      <c r="J106" s="195" t="s">
+      <c r="H106" s="402" t="s">
+        <v>485</v>
+      </c>
+      <c r="I106" s="403"/>
+      <c r="J106" s="192" t="s">
         <v>492</v>
       </c>
-      <c r="K106" s="310" t="s">
+      <c r="K106" s="309" t="s">
         <v>490</v>
       </c>
-      <c r="L106" s="307"/>
+      <c r="L106" s="305"/>
       <c r="M106" s="186"/>
       <c r="N106" s="186"/>
     </row>
-    <row r="107" spans="2:14" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="437"/>
-      <c r="C107" s="208" t="s">
-        <v>483</v>
-      </c>
-      <c r="D107" s="311" t="s">
+    <row r="107" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="417"/>
+      <c r="C107" s="194" t="s">
+        <v>482</v>
+      </c>
+      <c r="D107" s="306" t="s">
         <v>487</v>
       </c>
-      <c r="E107" s="543">
-        <v>2</v>
-      </c>
-      <c r="F107" s="544"/>
-      <c r="G107" s="210" t="s">
+      <c r="E107" s="412">
+        <v>1</v>
+      </c>
+      <c r="F107" s="413"/>
+      <c r="G107" s="195" t="s">
         <v>486</v>
       </c>
-      <c r="H107" s="539" t="s">
+      <c r="H107" s="404" t="s">
         <v>514</v>
       </c>
-      <c r="I107" s="540"/>
-      <c r="J107" s="210" t="s">
+      <c r="I107" s="405"/>
+      <c r="J107" s="195" t="s">
         <v>492</v>
       </c>
-      <c r="K107" s="312" t="s">
+      <c r="K107" s="310" t="s">
         <v>490</v>
       </c>
-      <c r="L107" s="313"/>
+      <c r="L107" s="307"/>
       <c r="M107" s="186"/>
       <c r="N107" s="186"/>
     </row>
-    <row r="108" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="186"/>
-      <c r="C108" s="314"/>
-      <c r="D108" s="186"/>
-      <c r="E108" s="186"/>
-      <c r="F108" s="186"/>
-      <c r="G108" s="186"/>
-      <c r="H108" s="186"/>
-      <c r="I108" s="186"/>
-      <c r="J108" s="186"/>
-      <c r="K108" s="186"/>
-      <c r="L108" s="186"/>
+    <row r="108" spans="2:14" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="418"/>
+      <c r="C108" s="208" t="s">
+        <v>483</v>
+      </c>
+      <c r="D108" s="311" t="s">
+        <v>487</v>
+      </c>
+      <c r="E108" s="414">
+        <v>2</v>
+      </c>
+      <c r="F108" s="415"/>
+      <c r="G108" s="210" t="s">
+        <v>486</v>
+      </c>
+      <c r="H108" s="406" t="s">
+        <v>514</v>
+      </c>
+      <c r="I108" s="407"/>
+      <c r="J108" s="210" t="s">
+        <v>492</v>
+      </c>
+      <c r="K108" s="312" t="s">
+        <v>490</v>
+      </c>
+      <c r="L108" s="313"/>
       <c r="M108" s="186"/>
       <c r="N108" s="186"/>
     </row>
-    <row r="109" spans="2:14" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="122" t="s">
+    <row r="109" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B109" s="186"/>
+      <c r="C109" s="314"/>
+      <c r="D109" s="186"/>
+      <c r="E109" s="186"/>
+      <c r="F109" s="186"/>
+      <c r="G109" s="186"/>
+      <c r="H109" s="186"/>
+      <c r="I109" s="186"/>
+      <c r="J109" s="186"/>
+      <c r="K109" s="186"/>
+      <c r="L109" s="186"/>
+      <c r="M109" s="186"/>
+      <c r="N109" s="186"/>
+    </row>
+    <row r="110" spans="2:14" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="C109" s="124" t="s">
+      <c r="C110" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="D109" s="124" t="s">
+      <c r="D110" s="124" t="s">
         <v>532</v>
       </c>
-      <c r="E109" s="517" t="s">
+      <c r="E110" s="419" t="s">
         <v>479</v>
       </c>
-      <c r="F109" s="518"/>
-      <c r="G109" s="124" t="s">
+      <c r="F110" s="420"/>
+      <c r="G110" s="124" t="s">
         <v>210</v>
       </c>
-      <c r="H109" s="517" t="s">
+      <c r="H110" s="419" t="s">
         <v>209</v>
       </c>
-      <c r="I109" s="518"/>
-      <c r="J109" s="124" t="s">
+      <c r="I110" s="420"/>
+      <c r="J110" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="K109" s="124" t="s">
+      <c r="K110" s="124" t="s">
         <v>211</v>
       </c>
-      <c r="L109" s="124" t="s">
+      <c r="L110" s="124" t="s">
         <v>360</v>
       </c>
-      <c r="M109" s="265" t="s">
+      <c r="M110" s="265" t="s">
         <v>489</v>
       </c>
-      <c r="N109" s="315" t="s">
+      <c r="N110" s="315" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="110" spans="2:14" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="123" t="s">
+    <row r="111" spans="2:14" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B111" s="123" t="s">
         <v>531</v>
       </c>
-      <c r="C110" s="125" t="s">
+      <c r="C111" s="125" t="s">
         <v>478</v>
       </c>
-      <c r="D110" s="128" t="s">
+      <c r="D111" s="128" t="s">
         <v>536</v>
       </c>
-      <c r="E110" s="519">
+      <c r="E111" s="421">
         <v>8</v>
       </c>
-      <c r="F110" s="520"/>
-      <c r="G110" s="126" t="s">
+      <c r="F111" s="422"/>
+      <c r="G111" s="126" t="s">
         <v>470</v>
       </c>
-      <c r="H110" s="519">
+      <c r="H111" s="421">
         <v>12</v>
       </c>
-      <c r="I110" s="520"/>
-      <c r="J110" s="126">
+      <c r="I111" s="422"/>
+      <c r="J111" s="126">
         <v>8</v>
       </c>
-      <c r="K110" s="127" t="s">
+      <c r="K111" s="127" t="s">
         <v>470</v>
       </c>
-      <c r="L110" s="126">
+      <c r="L111" s="126">
         <v>4</v>
       </c>
-      <c r="M110" s="255" t="s">
+      <c r="M111" s="255" t="s">
         <v>490</v>
       </c>
-      <c r="N110" s="316" t="s">
+      <c r="N111" s="316" t="s">
         <v>530</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="185">
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="E100:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="L100:L101"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J50"/>
-    <mergeCell ref="J54:J58"/>
-    <mergeCell ref="J59:J63"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="K44:K46"/>
-    <mergeCell ref="K47:K50"/>
-    <mergeCell ref="K54:K58"/>
-    <mergeCell ref="K59:K63"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J100:J101"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="B78:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="K100:K101"/>
-    <mergeCell ref="H100:I101"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B6:B24"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B53:B63"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="L54:L58"/>
+    <mergeCell ref="L59:L63"/>
+    <mergeCell ref="L47:L50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="G54:G58"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="D9:D17"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H53:H63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I54:I58"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="I59:I63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="G59:G63"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H66:I66"/>
     <mergeCell ref="H85:I85"/>
     <mergeCell ref="H88:I88"/>
     <mergeCell ref="E88:F88"/>
@@ -15078,82 +15090,91 @@
     <mergeCell ref="H72:I72"/>
     <mergeCell ref="H73:I73"/>
     <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="D9:D17"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H53:H63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B53:B63"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="L54:L58"/>
-    <mergeCell ref="L59:L63"/>
-    <mergeCell ref="L47:L50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="F54:F58"/>
-    <mergeCell ref="G54:G58"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B6:B24"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="I54:I58"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="I59:I63"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="G59:G63"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="B78:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="H101:I102"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="J54:J58"/>
+    <mergeCell ref="J59:J63"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K44:K46"/>
+    <mergeCell ref="K47:K50"/>
+    <mergeCell ref="K54:K58"/>
+    <mergeCell ref="K59:K63"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="E101:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -15230,7 +15251,7 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="548" t="s">
+      <c r="B4" s="560" t="s">
         <v>538</v>
       </c>
       <c r="C4" s="146" t="s">
@@ -15248,13 +15269,13 @@
       <c r="G4" s="147">
         <v>3</v>
       </c>
-      <c r="H4" s="551" t="s">
+      <c r="H4" s="563" t="s">
         <v>473</v>
       </c>
-      <c r="I4" s="551" t="s">
+      <c r="I4" s="563" t="s">
         <v>569</v>
       </c>
-      <c r="J4" s="551" t="s">
+      <c r="J4" s="563" t="s">
         <v>563</v>
       </c>
       <c r="K4" s="147" t="s">
@@ -15263,7 +15284,7 @@
       <c r="L4" s="148"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="549"/>
+      <c r="B5" s="561"/>
       <c r="C5" s="139" t="s">
         <v>540</v>
       </c>
@@ -15279,16 +15300,16 @@
       <c r="G5" s="130">
         <v>5</v>
       </c>
-      <c r="H5" s="552"/>
-      <c r="I5" s="552"/>
-      <c r="J5" s="552"/>
+      <c r="H5" s="564"/>
+      <c r="I5" s="564"/>
+      <c r="J5" s="564"/>
       <c r="K5" s="130" t="s">
         <v>473</v>
       </c>
       <c r="L5" s="134"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="549"/>
+      <c r="B6" s="561"/>
       <c r="C6" s="139" t="s">
         <v>541</v>
       </c>
@@ -15304,16 +15325,16 @@
       <c r="G6" s="130">
         <v>5</v>
       </c>
-      <c r="H6" s="552"/>
-      <c r="I6" s="552"/>
-      <c r="J6" s="552"/>
+      <c r="H6" s="564"/>
+      <c r="I6" s="564"/>
+      <c r="J6" s="564"/>
       <c r="K6" s="130" t="s">
         <v>473</v>
       </c>
       <c r="L6" s="134"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="549"/>
+      <c r="B7" s="561"/>
       <c r="C7" s="139" t="s">
         <v>542</v>
       </c>
@@ -15329,16 +15350,16 @@
       <c r="G7" s="130">
         <v>7</v>
       </c>
-      <c r="H7" s="552"/>
-      <c r="I7" s="552"/>
-      <c r="J7" s="552"/>
+      <c r="H7" s="564"/>
+      <c r="I7" s="564"/>
+      <c r="J7" s="564"/>
       <c r="K7" s="130" t="s">
         <v>220</v>
       </c>
       <c r="L7" s="134"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="549"/>
+      <c r="B8" s="561"/>
       <c r="C8" s="139" t="s">
         <v>543</v>
       </c>
@@ -15354,16 +15375,16 @@
       <c r="G8" s="130">
         <v>7</v>
       </c>
-      <c r="H8" s="552"/>
-      <c r="I8" s="552"/>
-      <c r="J8" s="552"/>
+      <c r="H8" s="564"/>
+      <c r="I8" s="564"/>
+      <c r="J8" s="564"/>
       <c r="K8" s="130" t="s">
         <v>220</v>
       </c>
       <c r="L8" s="134"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="549"/>
+      <c r="B9" s="561"/>
       <c r="C9" s="139" t="s">
         <v>544</v>
       </c>
@@ -15379,16 +15400,16 @@
       <c r="G9" s="130">
         <v>13</v>
       </c>
-      <c r="H9" s="552"/>
-      <c r="I9" s="552"/>
-      <c r="J9" s="552"/>
+      <c r="H9" s="564"/>
+      <c r="I9" s="564"/>
+      <c r="J9" s="564"/>
       <c r="K9" s="130" t="s">
         <v>220</v>
       </c>
       <c r="L9" s="134"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="550"/>
+      <c r="B10" s="562"/>
       <c r="C10" s="149" t="s">
         <v>545</v>
       </c>
@@ -15404,16 +15425,16 @@
       <c r="G10" s="150">
         <v>17</v>
       </c>
-      <c r="H10" s="553"/>
-      <c r="I10" s="553"/>
-      <c r="J10" s="553"/>
+      <c r="H10" s="565"/>
+      <c r="I10" s="565"/>
+      <c r="J10" s="565"/>
       <c r="K10" s="150" t="s">
         <v>220</v>
       </c>
       <c r="L10" s="151"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="546" t="s">
+      <c r="B11" s="558" t="s">
         <v>539</v>
       </c>
       <c r="C11" s="143" t="s">
@@ -15437,7 +15458,7 @@
       <c r="I11" s="144" t="s">
         <v>570</v>
       </c>
-      <c r="J11" s="554" t="s">
+      <c r="J11" s="566" t="s">
         <v>563</v>
       </c>
       <c r="K11" s="144" t="s">
@@ -15446,7 +15467,7 @@
       <c r="L11" s="145"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="546"/>
+      <c r="B12" s="558"/>
       <c r="C12" s="140" t="s">
         <v>547</v>
       </c>
@@ -15468,14 +15489,14 @@
       <c r="I12" s="131" t="s">
         <v>570</v>
       </c>
-      <c r="J12" s="554"/>
+      <c r="J12" s="566"/>
       <c r="K12" s="131" t="s">
         <v>220</v>
       </c>
       <c r="L12" s="135"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="546"/>
+      <c r="B13" s="558"/>
       <c r="C13" s="140" t="s">
         <v>548</v>
       </c>
@@ -15497,14 +15518,14 @@
       <c r="I13" s="131" t="s">
         <v>570</v>
       </c>
-      <c r="J13" s="554"/>
+      <c r="J13" s="566"/>
       <c r="K13" s="131" t="s">
         <v>473</v>
       </c>
       <c r="L13" s="135"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="546"/>
+      <c r="B14" s="558"/>
       <c r="C14" s="140" t="s">
         <v>549</v>
       </c>
@@ -15526,14 +15547,14 @@
       <c r="I14" s="131" t="s">
         <v>571</v>
       </c>
-      <c r="J14" s="554"/>
+      <c r="J14" s="566"/>
       <c r="K14" s="131" t="s">
         <v>473</v>
       </c>
       <c r="L14" s="135"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="546"/>
+      <c r="B15" s="558"/>
       <c r="C15" s="140" t="s">
         <v>550</v>
       </c>
@@ -15555,14 +15576,14 @@
       <c r="I15" s="131" t="s">
         <v>572</v>
       </c>
-      <c r="J15" s="554"/>
+      <c r="J15" s="566"/>
       <c r="K15" s="131" t="s">
         <v>220</v>
       </c>
       <c r="L15" s="135"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="546"/>
+      <c r="B16" s="558"/>
       <c r="C16" s="140" t="s">
         <v>551</v>
       </c>
@@ -15584,14 +15605,14 @@
       <c r="I16" s="131" t="s">
         <v>573</v>
       </c>
-      <c r="J16" s="555"/>
+      <c r="J16" s="567"/>
       <c r="K16" s="131" t="s">
         <v>473</v>
       </c>
       <c r="L16" s="135"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="546"/>
+      <c r="B17" s="558"/>
       <c r="C17" s="140" t="s">
         <v>552</v>
       </c>
@@ -15622,7 +15643,7 @@
       <c r="L17" s="135"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="546"/>
+      <c r="B18" s="558"/>
       <c r="C18" s="140" t="s">
         <v>553</v>
       </c>
@@ -15644,7 +15665,7 @@
       <c r="I18" s="131" t="s">
         <v>574</v>
       </c>
-      <c r="J18" s="556" t="s">
+      <c r="J18" s="568" t="s">
         <v>563</v>
       </c>
       <c r="K18" s="131" t="s">
@@ -15653,7 +15674,7 @@
       <c r="L18" s="135"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="546"/>
+      <c r="B19" s="558"/>
       <c r="C19" s="140" t="s">
         <v>554</v>
       </c>
@@ -15675,14 +15696,14 @@
       <c r="I19" s="131" t="s">
         <v>572</v>
       </c>
-      <c r="J19" s="554"/>
+      <c r="J19" s="566"/>
       <c r="K19" s="131" t="s">
         <v>473</v>
       </c>
       <c r="L19" s="135"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="546"/>
+      <c r="B20" s="558"/>
       <c r="C20" s="140" t="s">
         <v>555</v>
       </c>
@@ -15704,14 +15725,14 @@
       <c r="I20" s="131" t="s">
         <v>575</v>
       </c>
-      <c r="J20" s="554"/>
+      <c r="J20" s="566"/>
       <c r="K20" s="131" t="s">
         <v>220</v>
       </c>
       <c r="L20" s="135"/>
     </row>
     <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="547"/>
+      <c r="B21" s="559"/>
       <c r="C21" s="141" t="s">
         <v>556</v>
       </c>
@@ -15733,19 +15754,19 @@
       <c r="I21" s="136" t="s">
         <v>576</v>
       </c>
-      <c r="J21" s="557"/>
+      <c r="J21" s="569"/>
       <c r="K21" s="136" t="s">
         <v>473</v>
       </c>
       <c r="L21" s="137"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I22" s="545" t="s">
+      <c r="I22" s="557" t="s">
         <v>577</v>
       </c>
-      <c r="J22" s="545"/>
-      <c r="K22" s="545"/>
-      <c r="L22" s="545"/>
+      <c r="J22" s="557"/>
+      <c r="K22" s="557"/>
+      <c r="L22" s="557"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -15869,10 +15890,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="558" t="s">
+      <c r="B2" s="597" t="s">
         <v>578</v>
       </c>
-      <c r="C2" s="559"/>
+      <c r="C2" s="598"/>
       <c r="D2" s="324" t="s">
         <v>596</v>
       </c>
@@ -15884,7 +15905,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="561" t="s">
+      <c r="B3" s="600" t="s">
         <v>599</v>
       </c>
       <c r="C3" s="317" t="s">
@@ -15901,31 +15922,31 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="562"/>
-      <c r="C4" s="560" t="s">
+      <c r="B4" s="579"/>
+      <c r="C4" s="599" t="s">
         <v>615</v>
       </c>
       <c r="D4" s="329" t="s">
         <v>607</v>
       </c>
-      <c r="E4" s="566" t="s">
+      <c r="E4" s="602" t="s">
         <v>609</v>
       </c>
-      <c r="F4" s="567"/>
+      <c r="F4" s="603"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="562"/>
-      <c r="C5" s="560"/>
+      <c r="B5" s="579"/>
+      <c r="C5" s="599"/>
       <c r="D5" s="330" t="s">
         <v>608</v>
       </c>
-      <c r="E5" s="568" t="s">
+      <c r="E5" s="604" t="s">
         <v>608</v>
       </c>
-      <c r="F5" s="569"/>
+      <c r="F5" s="605"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="563"/>
+      <c r="B6" s="571"/>
       <c r="C6" s="318" t="s">
         <v>614</v>
       </c>
@@ -15940,68 +15961,68 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="564" t="s">
+      <c r="B7" s="578" t="s">
         <v>600</v>
       </c>
       <c r="C7" s="319" t="s">
         <v>617</v>
       </c>
-      <c r="D7" s="570" t="s">
+      <c r="D7" s="606" t="s">
         <v>610</v>
       </c>
-      <c r="E7" s="571"/>
-      <c r="F7" s="572"/>
+      <c r="E7" s="607"/>
+      <c r="F7" s="608"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="562"/>
+      <c r="B8" s="579"/>
       <c r="C8" s="320" t="s">
         <v>618</v>
       </c>
-      <c r="D8" s="573" t="s">
+      <c r="D8" s="609" t="s">
         <v>611</v>
       </c>
-      <c r="E8" s="568"/>
-      <c r="F8" s="569"/>
+      <c r="E8" s="604"/>
+      <c r="F8" s="605"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="565"/>
+      <c r="B9" s="601"/>
       <c r="C9" s="321" t="s">
         <v>619</v>
       </c>
-      <c r="D9" s="574" t="s">
+      <c r="D9" s="610" t="s">
         <v>612</v>
       </c>
-      <c r="E9" s="575"/>
-      <c r="F9" s="576"/>
+      <c r="E9" s="611"/>
+      <c r="F9" s="612"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="577" t="s">
+      <c r="B10" s="570" t="s">
         <v>613</v>
       </c>
       <c r="C10" s="322" t="s">
         <v>620</v>
       </c>
-      <c r="D10" s="578" t="s">
+      <c r="D10" s="588" t="s">
         <v>622</v>
       </c>
-      <c r="E10" s="579"/>
+      <c r="E10" s="589"/>
       <c r="F10" s="335" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="563"/>
+      <c r="B11" s="571"/>
       <c r="C11" s="318" t="s">
         <v>621</v>
       </c>
-      <c r="D11" s="580" t="s">
+      <c r="D11" s="590" t="s">
         <v>624</v>
       </c>
-      <c r="E11" s="581"/>
-      <c r="F11" s="582"/>
+      <c r="E11" s="591"/>
+      <c r="F11" s="592"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="564" t="s">
+      <c r="B12" s="578" t="s">
         <v>625</v>
       </c>
       <c r="C12" s="319" t="s">
@@ -16010,63 +16031,63 @@
       <c r="D12" s="336" t="s">
         <v>629</v>
       </c>
-      <c r="E12" s="583" t="s">
+      <c r="E12" s="593" t="s">
         <v>632</v>
       </c>
-      <c r="F12" s="584"/>
+      <c r="F12" s="594"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="562"/>
+      <c r="B13" s="579"/>
       <c r="C13" s="320" t="s">
         <v>627</v>
       </c>
       <c r="D13" s="337" t="s">
         <v>630</v>
       </c>
-      <c r="E13" s="585" t="s">
+      <c r="E13" s="595" t="s">
         <v>633</v>
       </c>
-      <c r="F13" s="586"/>
+      <c r="F13" s="596"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="563"/>
+      <c r="B14" s="571"/>
       <c r="C14" s="318" t="s">
         <v>628</v>
       </c>
       <c r="D14" s="338" t="s">
         <v>631</v>
       </c>
-      <c r="E14" s="587" t="s">
+      <c r="E14" s="576" t="s">
         <v>634</v>
       </c>
-      <c r="F14" s="588"/>
+      <c r="F14" s="577"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="577" t="s">
+      <c r="B15" s="570" t="s">
         <v>635</v>
       </c>
       <c r="C15" s="322" t="s">
         <v>615</v>
       </c>
-      <c r="D15" s="589" t="s">
+      <c r="D15" s="572" t="s">
         <v>637</v>
       </c>
-      <c r="E15" s="590"/>
-      <c r="F15" s="591"/>
+      <c r="E15" s="573"/>
+      <c r="F15" s="574"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="563"/>
+      <c r="B16" s="571"/>
       <c r="C16" s="318" t="s">
         <v>636</v>
       </c>
-      <c r="D16" s="592" t="s">
+      <c r="D16" s="575" t="s">
         <v>638</v>
       </c>
-      <c r="E16" s="587"/>
-      <c r="F16" s="588"/>
+      <c r="E16" s="576"/>
+      <c r="F16" s="577"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="564" t="s">
+      <c r="B17" s="578" t="s">
         <v>639</v>
       </c>
       <c r="C17" s="319" t="s">
@@ -16075,51 +16096,37 @@
       <c r="D17" s="339" t="s">
         <v>645</v>
       </c>
-      <c r="E17" s="596" t="s">
+      <c r="E17" s="583" t="s">
         <v>646</v>
       </c>
-      <c r="F17" s="597"/>
+      <c r="F17" s="584"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="562"/>
+      <c r="B18" s="579"/>
       <c r="C18" s="320" t="s">
         <v>641</v>
       </c>
       <c r="D18" s="340" t="s">
         <v>644</v>
       </c>
-      <c r="E18" s="594" t="s">
+      <c r="E18" s="581" t="s">
         <v>643</v>
       </c>
-      <c r="F18" s="595"/>
+      <c r="F18" s="582"/>
     </row>
     <row r="19" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="593"/>
+      <c r="B19" s="580"/>
       <c r="C19" s="323" t="s">
         <v>642</v>
       </c>
-      <c r="D19" s="598" t="s">
+      <c r="D19" s="585" t="s">
         <v>647</v>
       </c>
-      <c r="E19" s="599"/>
-      <c r="F19" s="600"/>
+      <c r="E19" s="586"/>
+      <c r="F19" s="587"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B3:B6"/>
@@ -16129,6 +16136,20 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="D19:F19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16140,8 +16161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4976F7D9-6043-4368-B90F-3F71D3EE6813}">
   <dimension ref="B1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16181,7 +16202,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="548" t="s">
+      <c r="B4" s="560" t="s">
         <v>662</v>
       </c>
       <c r="C4" s="146" t="s">
@@ -16201,7 +16222,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="549"/>
+      <c r="B5" s="561"/>
       <c r="C5" s="139" t="s">
         <v>665</v>
       </c>
@@ -16219,8 +16240,8 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="B6" s="549"/>
-      <c r="C6" s="609" t="s">
+      <c r="B6" s="561"/>
+      <c r="C6" s="348" t="s">
         <v>674</v>
       </c>
       <c r="D6" s="334" t="s">
@@ -16232,12 +16253,12 @@
       <c r="F6" s="334" t="s">
         <v>678</v>
       </c>
-      <c r="G6" s="610" t="s">
+      <c r="G6" s="349" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="550"/>
+      <c r="B7" s="562"/>
       <c r="C7" s="149" t="s">
         <v>666</v>
       </c>
@@ -16255,7 +16276,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="602" t="s">
+      <c r="B8" s="613" t="s">
         <v>663</v>
       </c>
       <c r="C8" s="143" t="s">
@@ -16275,8 +16296,8 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="546"/>
-      <c r="C9" s="603" t="s">
+      <c r="B9" s="558"/>
+      <c r="C9" s="342" t="s">
         <v>668</v>
       </c>
       <c r="D9" s="177" t="s">
@@ -16286,53 +16307,53 @@
         <v>673</v>
       </c>
       <c r="F9" s="615"/>
-      <c r="G9" s="604" t="s">
+      <c r="G9" s="343" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="601" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="608" t="s">
+    <row r="10" spans="2:7" s="341" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="347" t="s">
         <v>709</v>
       </c>
-      <c r="C10" s="605" t="s">
+      <c r="C10" s="344" t="s">
         <v>670</v>
       </c>
-      <c r="D10" s="606" t="s">
+      <c r="D10" s="345" t="s">
         <v>671</v>
       </c>
-      <c r="E10" s="606" t="s">
+      <c r="E10" s="345" t="s">
         <v>685</v>
       </c>
-      <c r="F10" s="606" t="s">
+      <c r="F10" s="345" t="s">
         <v>692</v>
       </c>
-      <c r="G10" s="607" t="s">
+      <c r="G10" s="346" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="611" t="s">
+      <c r="B11" s="350" t="s">
         <v>691</v>
       </c>
       <c r="G11" s="174"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="612" t="s">
+      <c r="B12" s="351" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="612" t="s">
+      <c r="B13" s="351" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="612" t="s">
+      <c r="B14" s="351" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="612" t="s">
+      <c r="B15" s="351" t="s">
         <v>689</v>
       </c>
     </row>
